--- a/MultiSheetBrickData.xlsx
+++ b/MultiSheetBrickData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Bricks" sheetId="1" r:id="rId1"/>
@@ -10800,8 +10800,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U289"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:J1048576"/>
+    <sheetView topLeftCell="B282" workbookViewId="0">
+      <selection activeCell="D289" sqref="D289"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -10849,8 +10849,8 @@
       <c r="C2" s="20" t="s">
         <v>2664</v>
       </c>
-      <c r="D2" s="20">
-        <v>1</v>
+      <c r="D2" s="38">
+        <v>2</v>
       </c>
       <c r="E2" s="20" t="s">
         <v>3</v>
@@ -10861,7 +10861,9 @@
       <c r="G2" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="38"/>
+      <c r="H2" s="38">
+        <v>1</v>
+      </c>
       <c r="I2" s="37"/>
       <c r="J2" s="38"/>
     </row>
@@ -10875,8 +10877,8 @@
       <c r="C3" s="20" t="s">
         <v>2656</v>
       </c>
-      <c r="D3" s="20">
-        <v>3</v>
+      <c r="D3" s="38">
+        <v>4</v>
       </c>
       <c r="E3" s="20" t="s">
         <v>8</v>
@@ -10901,8 +10903,8 @@
       <c r="C4" s="20" t="s">
         <v>2668</v>
       </c>
-      <c r="D4" s="20">
-        <v>4</v>
+      <c r="D4" s="38">
+        <v>5</v>
       </c>
       <c r="E4" s="20" t="s">
         <v>13</v>
@@ -10927,8 +10929,8 @@
       <c r="C5" s="20" t="s">
         <v>2656</v>
       </c>
-      <c r="D5" s="20">
-        <v>5</v>
+      <c r="D5" s="38">
+        <v>6</v>
       </c>
       <c r="E5" s="20" t="s">
         <v>18</v>
@@ -10953,8 +10955,8 @@
       <c r="C6" s="20" t="s">
         <v>2650</v>
       </c>
-      <c r="D6" s="20">
-        <v>6</v>
+      <c r="D6" s="38">
+        <v>7</v>
       </c>
       <c r="E6" s="20" t="s">
         <v>21</v>
@@ -10979,8 +10981,8 @@
       <c r="C7" s="20" t="s">
         <v>2654</v>
       </c>
-      <c r="D7" s="20">
-        <v>7</v>
+      <c r="D7" s="38">
+        <v>8</v>
       </c>
       <c r="E7" s="20" t="s">
         <v>27</v>
@@ -11005,8 +11007,8 @@
       <c r="C8" s="20" t="s">
         <v>2650</v>
       </c>
-      <c r="D8" s="20">
-        <v>8</v>
+      <c r="D8" s="38">
+        <v>9</v>
       </c>
       <c r="E8" s="20" t="s">
         <v>31</v>
@@ -11031,8 +11033,8 @@
       <c r="C9" s="20" t="s">
         <v>2660</v>
       </c>
-      <c r="D9" s="20">
-        <v>9</v>
+      <c r="D9" s="38">
+        <v>10</v>
       </c>
       <c r="E9" s="20" t="s">
         <v>36</v>
@@ -11057,8 +11059,8 @@
       <c r="C10" s="20" t="s">
         <v>2651</v>
       </c>
-      <c r="D10" s="20">
-        <v>10</v>
+      <c r="D10" s="38">
+        <v>11</v>
       </c>
       <c r="E10" s="20" t="s">
         <v>40</v>
@@ -11083,8 +11085,8 @@
       <c r="C11" s="20" t="s">
         <v>2651</v>
       </c>
-      <c r="D11" s="20">
-        <v>11</v>
+      <c r="D11" s="38">
+        <v>12</v>
       </c>
       <c r="E11" s="20" t="s">
         <v>45</v>
@@ -11109,8 +11111,8 @@
       <c r="C12" s="20" t="s">
         <v>2667</v>
       </c>
-      <c r="D12" s="20">
-        <v>12</v>
+      <c r="D12" s="38">
+        <v>13</v>
       </c>
       <c r="E12" s="20" t="s">
         <v>50</v>
@@ -11135,8 +11137,8 @@
       <c r="C13" s="20" t="s">
         <v>2667</v>
       </c>
-      <c r="D13" s="20">
-        <v>13</v>
+      <c r="D13" s="38">
+        <v>14</v>
       </c>
       <c r="E13" s="20" t="s">
         <v>55</v>
@@ -11161,8 +11163,8 @@
       <c r="C14" s="20" t="s">
         <v>2655</v>
       </c>
-      <c r="D14" s="20">
-        <v>14</v>
+      <c r="D14" s="38">
+        <v>15</v>
       </c>
       <c r="E14" s="20" t="s">
         <v>60</v>
@@ -11187,8 +11189,8 @@
       <c r="C15" s="20" t="s">
         <v>2651</v>
       </c>
-      <c r="D15" s="20">
-        <v>15</v>
+      <c r="D15" s="38">
+        <v>16</v>
       </c>
       <c r="E15" s="20" t="s">
         <v>65</v>
@@ -11213,8 +11215,8 @@
       <c r="C16" s="20" t="s">
         <v>2667</v>
       </c>
-      <c r="D16" s="20">
-        <v>16</v>
+      <c r="D16" s="38">
+        <v>17</v>
       </c>
       <c r="E16" s="20" t="s">
         <v>70</v>
@@ -11236,8 +11238,8 @@
       <c r="C17" s="20" t="s">
         <v>2662</v>
       </c>
-      <c r="D17" s="20">
-        <v>17</v>
+      <c r="D17" s="38">
+        <v>18</v>
       </c>
       <c r="E17" s="20" t="s">
         <v>74</v>
@@ -11262,8 +11264,8 @@
       <c r="C18" s="20" t="s">
         <v>2660</v>
       </c>
-      <c r="D18" s="20">
-        <v>18</v>
+      <c r="D18" s="38">
+        <v>19</v>
       </c>
       <c r="E18" s="20" t="s">
         <v>77</v>
@@ -11288,8 +11290,8 @@
       <c r="C19" s="20" t="s">
         <v>2667</v>
       </c>
-      <c r="D19" s="20">
-        <v>19</v>
+      <c r="D19" s="38">
+        <v>20</v>
       </c>
       <c r="E19" s="20" t="s">
         <v>83</v>
@@ -11314,8 +11316,8 @@
       <c r="C20" s="20" t="s">
         <v>2662</v>
       </c>
-      <c r="D20" s="20">
-        <v>20</v>
+      <c r="D20" s="38">
+        <v>21</v>
       </c>
       <c r="E20" s="20" t="s">
         <v>88</v>
@@ -11340,8 +11342,8 @@
       <c r="C21" s="20" t="s">
         <v>2662</v>
       </c>
-      <c r="D21" s="20">
-        <v>21</v>
+      <c r="D21" s="38">
+        <v>22</v>
       </c>
       <c r="E21" s="20" t="s">
         <v>93</v>
@@ -11366,8 +11368,8 @@
       <c r="C22" s="20" t="s">
         <v>2666</v>
       </c>
-      <c r="D22" s="20">
-        <v>22</v>
+      <c r="D22" s="38">
+        <v>23</v>
       </c>
       <c r="E22" s="20" t="s">
         <v>98</v>
@@ -11392,8 +11394,8 @@
       <c r="C23" s="20" t="s">
         <v>2660</v>
       </c>
-      <c r="D23" s="20">
-        <v>23</v>
+      <c r="D23" s="38">
+        <v>24</v>
       </c>
       <c r="E23" s="20" t="s">
         <v>102</v>
@@ -11418,8 +11420,8 @@
       <c r="C24" s="20" t="s">
         <v>2655</v>
       </c>
-      <c r="D24" s="20">
-        <v>24</v>
+      <c r="D24" s="38">
+        <v>25</v>
       </c>
       <c r="E24" s="20" t="s">
         <v>107</v>
@@ -11444,8 +11446,8 @@
       <c r="C25" s="20" t="s">
         <v>2652</v>
       </c>
-      <c r="D25" s="20">
-        <v>25</v>
+      <c r="D25" s="38">
+        <v>26</v>
       </c>
       <c r="E25" s="20" t="s">
         <v>111</v>
@@ -11467,8 +11469,8 @@
       <c r="C26" s="20" t="s">
         <v>2667</v>
       </c>
-      <c r="D26" s="20">
-        <v>26</v>
+      <c r="D26" s="38">
+        <v>27</v>
       </c>
       <c r="E26" s="20" t="s">
         <v>115</v>
@@ -11493,8 +11495,8 @@
       <c r="C27" s="20" t="s">
         <v>2659</v>
       </c>
-      <c r="D27" s="20">
-        <v>27</v>
+      <c r="D27" s="38">
+        <v>28</v>
       </c>
       <c r="E27" s="20" t="s">
         <v>118</v>
@@ -11519,8 +11521,8 @@
       <c r="C28" s="20" t="s">
         <v>2667</v>
       </c>
-      <c r="D28" s="20">
-        <v>28</v>
+      <c r="D28" s="38">
+        <v>29</v>
       </c>
       <c r="E28" s="20" t="s">
         <v>122</v>
@@ -11545,8 +11547,8 @@
       <c r="C29" s="20" t="s">
         <v>2653</v>
       </c>
-      <c r="D29" s="20">
-        <v>29</v>
+      <c r="D29" s="38">
+        <v>30</v>
       </c>
       <c r="E29" s="20" t="s">
         <v>126</v>
@@ -11571,8 +11573,8 @@
       <c r="C30" s="20" t="s">
         <v>2654</v>
       </c>
-      <c r="D30" s="20">
-        <v>30</v>
+      <c r="D30" s="38">
+        <v>31</v>
       </c>
       <c r="E30" s="20" t="s">
         <v>131</v>
@@ -11597,8 +11599,8 @@
       <c r="C31" s="20" t="s">
         <v>2657</v>
       </c>
-      <c r="D31" s="20">
-        <v>31</v>
+      <c r="D31" s="38">
+        <v>32</v>
       </c>
       <c r="E31" s="20" t="s">
         <v>136</v>
@@ -11623,8 +11625,8 @@
       <c r="C32" s="20" t="s">
         <v>2656</v>
       </c>
-      <c r="D32" s="20">
-        <v>32</v>
+      <c r="D32" s="38">
+        <v>33</v>
       </c>
       <c r="E32" s="20" t="s">
         <v>141</v>
@@ -11649,8 +11651,8 @@
       <c r="C33" s="20" t="s">
         <v>2654</v>
       </c>
-      <c r="D33" s="20">
-        <v>33</v>
+      <c r="D33" s="38">
+        <v>34</v>
       </c>
       <c r="E33" s="20" t="s">
         <v>146</v>
@@ -11675,8 +11677,8 @@
       <c r="C34" s="20" t="s">
         <v>2652</v>
       </c>
-      <c r="D34" s="20">
-        <v>34</v>
+      <c r="D34" s="38">
+        <v>35</v>
       </c>
       <c r="E34" s="20" t="s">
         <v>151</v>
@@ -11701,8 +11703,8 @@
       <c r="C35" s="20" t="s">
         <v>2650</v>
       </c>
-      <c r="D35" s="20">
-        <v>35</v>
+      <c r="D35" s="38">
+        <v>36</v>
       </c>
       <c r="E35" s="20" t="s">
         <v>156</v>
@@ -11727,8 +11729,8 @@
       <c r="C36" s="20" t="s">
         <v>2654</v>
       </c>
-      <c r="D36" s="20">
-        <v>36</v>
+      <c r="D36" s="38">
+        <v>37</v>
       </c>
       <c r="E36" s="20" t="s">
         <v>159</v>
@@ -11750,8 +11752,8 @@
       <c r="C37" s="20" t="s">
         <v>2660</v>
       </c>
-      <c r="D37" s="20">
-        <v>37</v>
+      <c r="D37" s="38">
+        <v>38</v>
       </c>
       <c r="E37" s="20" t="s">
         <v>162</v>
@@ -11773,8 +11775,8 @@
       <c r="C38" s="20" t="s">
         <v>2656</v>
       </c>
-      <c r="D38" s="20">
-        <v>38</v>
+      <c r="D38" s="38">
+        <v>39</v>
       </c>
       <c r="E38" s="20" t="s">
         <v>166</v>
@@ -11799,8 +11801,8 @@
       <c r="C39" s="20" t="s">
         <v>2664</v>
       </c>
-      <c r="D39" s="20">
-        <v>39</v>
+      <c r="D39" s="38">
+        <v>40</v>
       </c>
       <c r="E39" s="20" t="s">
         <v>170</v>
@@ -11825,8 +11827,8 @@
       <c r="C40" s="20" t="s">
         <v>2655</v>
       </c>
-      <c r="D40" s="20">
-        <v>40</v>
+      <c r="D40" s="38">
+        <v>41</v>
       </c>
       <c r="E40" s="26" t="s">
         <v>174</v>
@@ -11851,8 +11853,8 @@
       <c r="C41" s="20" t="s">
         <v>2666</v>
       </c>
-      <c r="D41" s="20">
-        <v>41</v>
+      <c r="D41" s="38">
+        <v>42</v>
       </c>
       <c r="E41" s="20" t="s">
         <v>178</v>
@@ -11877,8 +11879,8 @@
       <c r="C42" s="20" t="s">
         <v>2651</v>
       </c>
-      <c r="D42" s="20">
-        <v>42</v>
+      <c r="D42" s="38">
+        <v>43</v>
       </c>
       <c r="E42" s="20" t="s">
         <v>183</v>
@@ -11903,8 +11905,8 @@
       <c r="C43" s="20" t="s">
         <v>2661</v>
       </c>
-      <c r="D43" s="20">
-        <v>43</v>
+      <c r="D43" s="38">
+        <v>44</v>
       </c>
       <c r="E43" s="20" t="s">
         <v>188</v>
@@ -11929,8 +11931,8 @@
       <c r="C44" s="20" t="s">
         <v>2660</v>
       </c>
-      <c r="D44" s="20">
-        <v>44</v>
+      <c r="D44" s="38">
+        <v>45</v>
       </c>
       <c r="E44" s="20" t="s">
         <v>193</v>
@@ -11955,8 +11957,8 @@
       <c r="C45" s="20" t="s">
         <v>2656</v>
       </c>
-      <c r="D45" s="20">
-        <v>45</v>
+      <c r="D45" s="38">
+        <v>46</v>
       </c>
       <c r="E45" s="20" t="s">
         <v>198</v>
@@ -11981,8 +11983,8 @@
       <c r="C46" s="20" t="s">
         <v>2661</v>
       </c>
-      <c r="D46" s="20">
-        <v>46</v>
+      <c r="D46" s="38">
+        <v>47</v>
       </c>
       <c r="E46" s="20" t="s">
         <v>202</v>
@@ -12007,8 +12009,8 @@
       <c r="C47" s="20" t="s">
         <v>2663</v>
       </c>
-      <c r="D47" s="20">
-        <v>47</v>
+      <c r="D47" s="38">
+        <v>48</v>
       </c>
       <c r="E47" s="20" t="s">
         <v>205</v>
@@ -12033,8 +12035,8 @@
       <c r="C48" s="20" t="s">
         <v>2665</v>
       </c>
-      <c r="D48" s="20">
-        <v>48</v>
+      <c r="D48" s="38">
+        <v>49</v>
       </c>
       <c r="E48" s="20" t="s">
         <v>211</v>
@@ -12059,8 +12061,8 @@
       <c r="C49" s="20" t="s">
         <v>2662</v>
       </c>
-      <c r="D49" s="20">
-        <v>49</v>
+      <c r="D49" s="38">
+        <v>50</v>
       </c>
       <c r="E49" s="20" t="s">
         <v>216</v>
@@ -12085,8 +12087,8 @@
       <c r="C50" s="20" t="s">
         <v>2651</v>
       </c>
-      <c r="D50" s="20">
-        <v>50</v>
+      <c r="D50" s="38">
+        <v>51</v>
       </c>
       <c r="E50" s="20" t="s">
         <v>220</v>
@@ -12111,8 +12113,8 @@
       <c r="C51" s="20" t="s">
         <v>2656</v>
       </c>
-      <c r="D51" s="20">
-        <v>51</v>
+      <c r="D51" s="38">
+        <v>52</v>
       </c>
       <c r="E51" s="20" t="s">
         <v>225</v>
@@ -12137,8 +12139,8 @@
       <c r="C52" s="20" t="s">
         <v>2665</v>
       </c>
-      <c r="D52" s="20">
-        <v>52</v>
+      <c r="D52" s="38">
+        <v>53</v>
       </c>
       <c r="E52" s="20" t="s">
         <v>230</v>
@@ -12163,8 +12165,8 @@
       <c r="C53" s="20" t="s">
         <v>2656</v>
       </c>
-      <c r="D53" s="20">
-        <v>53</v>
+      <c r="D53" s="38">
+        <v>54</v>
       </c>
       <c r="E53" s="20" t="s">
         <v>235</v>
@@ -12189,8 +12191,8 @@
       <c r="C54" s="20" t="s">
         <v>2663</v>
       </c>
-      <c r="D54" s="20">
-        <v>54</v>
+      <c r="D54" s="38">
+        <v>55</v>
       </c>
       <c r="E54" s="20" t="s">
         <v>239</v>
@@ -12215,8 +12217,8 @@
       <c r="C55" s="20" t="s">
         <v>2654</v>
       </c>
-      <c r="D55" s="20">
-        <v>55</v>
+      <c r="D55" s="38">
+        <v>56</v>
       </c>
       <c r="E55" s="20" t="s">
         <v>244</v>
@@ -12241,8 +12243,8 @@
       <c r="C56" s="20" t="s">
         <v>2664</v>
       </c>
-      <c r="D56" s="20">
-        <v>56</v>
+      <c r="D56" s="38">
+        <v>57</v>
       </c>
       <c r="E56" s="20" t="s">
         <v>249</v>
@@ -12267,8 +12269,8 @@
       <c r="C57" s="20" t="s">
         <v>2669</v>
       </c>
-      <c r="D57" s="20">
-        <v>57</v>
+      <c r="D57" s="38">
+        <v>58</v>
       </c>
       <c r="E57" s="20" t="s">
         <v>254</v>
@@ -12293,8 +12295,8 @@
       <c r="C58" s="20" t="s">
         <v>2652</v>
       </c>
-      <c r="D58" s="20">
-        <v>58</v>
+      <c r="D58" s="38">
+        <v>59</v>
       </c>
       <c r="E58" s="26" t="s">
         <v>259</v>
@@ -12319,8 +12321,8 @@
       <c r="C59" s="20" t="s">
         <v>2668</v>
       </c>
-      <c r="D59" s="20">
-        <v>59</v>
+      <c r="D59" s="38">
+        <v>60</v>
       </c>
       <c r="E59" s="20" t="s">
         <v>264</v>
@@ -12345,8 +12347,8 @@
       <c r="C60" s="20" t="s">
         <v>2662</v>
       </c>
-      <c r="D60" s="20">
-        <v>60</v>
+      <c r="D60" s="38">
+        <v>61</v>
       </c>
       <c r="E60" s="20" t="s">
         <v>268</v>
@@ -12371,8 +12373,8 @@
       <c r="C61" s="20" t="s">
         <v>2654</v>
       </c>
-      <c r="D61" s="20">
-        <v>61</v>
+      <c r="D61" s="38">
+        <v>62</v>
       </c>
       <c r="E61" s="20" t="s">
         <v>273</v>
@@ -12394,8 +12396,8 @@
       <c r="C62" s="20" t="s">
         <v>2666</v>
       </c>
-      <c r="D62" s="20">
-        <v>62</v>
+      <c r="D62" s="38">
+        <v>63</v>
       </c>
       <c r="E62" s="20" t="s">
         <v>277</v>
@@ -12420,8 +12422,8 @@
       <c r="C63" s="20" t="s">
         <v>2652</v>
       </c>
-      <c r="D63" s="20">
-        <v>63</v>
+      <c r="D63" s="38">
+        <v>64</v>
       </c>
       <c r="E63" s="20" t="s">
         <v>282</v>
@@ -12443,8 +12445,8 @@
       <c r="C64" s="20" t="s">
         <v>2662</v>
       </c>
-      <c r="D64" s="20">
-        <v>64</v>
+      <c r="D64" s="38">
+        <v>65</v>
       </c>
       <c r="E64" s="20" t="s">
         <v>286</v>
@@ -12469,8 +12471,8 @@
       <c r="C65" s="20" t="s">
         <v>2669</v>
       </c>
-      <c r="D65" s="20">
-        <v>65</v>
+      <c r="D65" s="38">
+        <v>66</v>
       </c>
       <c r="E65" s="20" t="s">
         <v>291</v>
@@ -12495,8 +12497,8 @@
       <c r="C66" s="20" t="s">
         <v>2657</v>
       </c>
-      <c r="D66" s="20">
-        <v>66</v>
+      <c r="D66" s="38">
+        <v>67</v>
       </c>
       <c r="E66" s="20" t="s">
         <v>296</v>
@@ -12518,8 +12520,8 @@
       <c r="C67" s="20" t="s">
         <v>2664</v>
       </c>
-      <c r="D67" s="20">
-        <v>67</v>
+      <c r="D67" s="38">
+        <v>68</v>
       </c>
       <c r="E67" s="20" t="s">
         <v>300</v>
@@ -12544,8 +12546,8 @@
       <c r="C68" s="20" t="s">
         <v>2655</v>
       </c>
-      <c r="D68" s="20">
-        <v>68</v>
+      <c r="D68" s="38">
+        <v>69</v>
       </c>
       <c r="E68" s="20" t="s">
         <v>305</v>
@@ -12570,8 +12572,8 @@
       <c r="C69" s="20" t="s">
         <v>2657</v>
       </c>
-      <c r="D69" s="20">
-        <v>69</v>
+      <c r="D69" s="38">
+        <v>70</v>
       </c>
       <c r="E69" s="20" t="s">
         <v>308</v>
@@ -12596,8 +12598,8 @@
       <c r="C70" s="20" t="s">
         <v>2658</v>
       </c>
-      <c r="D70" s="20">
-        <v>70</v>
+      <c r="D70" s="38">
+        <v>71</v>
       </c>
       <c r="E70" s="20" t="s">
         <v>313</v>
@@ -12622,8 +12624,8 @@
       <c r="C71" s="20" t="s">
         <v>2665</v>
       </c>
-      <c r="D71" s="20">
-        <v>71</v>
+      <c r="D71" s="38">
+        <v>72</v>
       </c>
       <c r="E71" s="20" t="s">
         <v>318</v>
@@ -12648,8 +12650,8 @@
       <c r="C72" s="20" t="s">
         <v>2655</v>
       </c>
-      <c r="D72" s="20">
-        <v>72</v>
+      <c r="D72" s="38">
+        <v>73</v>
       </c>
       <c r="E72" s="20" t="s">
         <v>323</v>
@@ -12674,8 +12676,8 @@
       <c r="C73" s="20" t="s">
         <v>2656</v>
       </c>
-      <c r="D73" s="20">
-        <v>73</v>
+      <c r="D73" s="38">
+        <v>74</v>
       </c>
       <c r="E73" s="20" t="s">
         <v>328</v>
@@ -12700,8 +12702,8 @@
       <c r="C74" s="20" t="s">
         <v>2655</v>
       </c>
-      <c r="D74" s="20">
-        <v>75</v>
+      <c r="D74" s="38">
+        <v>76</v>
       </c>
       <c r="E74" s="20" t="s">
         <v>333</v>
@@ -12723,8 +12725,8 @@
       <c r="C75" s="20" t="s">
         <v>2653</v>
       </c>
-      <c r="D75" s="20">
-        <v>76</v>
+      <c r="D75" s="38">
+        <v>77</v>
       </c>
       <c r="E75" s="20" t="s">
         <v>336</v>
@@ -12749,8 +12751,8 @@
       <c r="C76" s="20" t="s">
         <v>2665</v>
       </c>
-      <c r="D76" s="20">
-        <v>77</v>
+      <c r="D76" s="38">
+        <v>78</v>
       </c>
       <c r="E76" s="20" t="s">
         <v>340</v>
@@ -12775,8 +12777,8 @@
       <c r="C77" s="20" t="s">
         <v>2657</v>
       </c>
-      <c r="D77" s="20">
-        <v>78</v>
+      <c r="D77" s="38">
+        <v>79</v>
       </c>
       <c r="E77" s="20" t="s">
         <v>345</v>
@@ -12801,8 +12803,8 @@
       <c r="C78" s="20" t="s">
         <v>2666</v>
       </c>
-      <c r="D78" s="20">
-        <v>79</v>
+      <c r="D78" s="38">
+        <v>80</v>
       </c>
       <c r="E78" s="20" t="s">
         <v>350</v>
@@ -12824,8 +12826,8 @@
       <c r="C79" s="20" t="s">
         <v>2659</v>
       </c>
-      <c r="D79" s="20">
-        <v>80</v>
+      <c r="D79" s="38">
+        <v>81</v>
       </c>
       <c r="E79" s="20" t="s">
         <v>354</v>
@@ -12847,8 +12849,8 @@
       <c r="C80" s="20" t="s">
         <v>2667</v>
       </c>
-      <c r="D80" s="20">
-        <v>81</v>
+      <c r="D80" s="38">
+        <v>82</v>
       </c>
       <c r="E80" s="20" t="s">
         <v>52</v>
@@ -12873,8 +12875,8 @@
       <c r="C81" s="20" t="s">
         <v>2662</v>
       </c>
-      <c r="D81" s="20">
-        <v>82</v>
+      <c r="D81" s="38">
+        <v>83</v>
       </c>
       <c r="E81" s="20" t="s">
         <v>52</v>
@@ -12899,8 +12901,8 @@
       <c r="C82" s="20" t="s">
         <v>2654</v>
       </c>
-      <c r="D82" s="20">
-        <v>83</v>
+      <c r="D82" s="38">
+        <v>84</v>
       </c>
       <c r="E82" s="20" t="s">
         <v>52</v>
@@ -12925,8 +12927,8 @@
       <c r="C83" s="20" t="s">
         <v>2660</v>
       </c>
-      <c r="D83" s="20">
-        <v>84</v>
+      <c r="D83" s="38">
+        <v>85</v>
       </c>
       <c r="E83" s="20" t="s">
         <v>369</v>
@@ -12948,8 +12950,8 @@
       <c r="C84" s="20" t="s">
         <v>2656</v>
       </c>
-      <c r="D84" s="20">
-        <v>85</v>
+      <c r="D84" s="38">
+        <v>86</v>
       </c>
       <c r="E84" s="20" t="s">
         <v>373</v>
@@ -12974,8 +12976,8 @@
       <c r="C85" s="20" t="s">
         <v>2651</v>
       </c>
-      <c r="D85" s="20">
-        <v>86</v>
+      <c r="D85" s="38">
+        <v>87</v>
       </c>
       <c r="E85" s="20" t="s">
         <v>378</v>
@@ -13000,8 +13002,8 @@
       <c r="C86" s="20" t="s">
         <v>2666</v>
       </c>
-      <c r="D86" s="20">
-        <v>87</v>
+      <c r="D86" s="38">
+        <v>88</v>
       </c>
       <c r="E86" s="20" t="s">
         <v>383</v>
@@ -13026,8 +13028,8 @@
       <c r="C87" s="20" t="s">
         <v>2669</v>
       </c>
-      <c r="D87" s="20">
-        <v>88</v>
+      <c r="D87" s="38">
+        <v>89</v>
       </c>
       <c r="E87" s="20" t="s">
         <v>388</v>
@@ -13052,8 +13054,8 @@
       <c r="C88" s="20" t="s">
         <v>2663</v>
       </c>
-      <c r="D88" s="20">
-        <v>89</v>
+      <c r="D88" s="38">
+        <v>90</v>
       </c>
       <c r="E88" s="20" t="s">
         <v>393</v>
@@ -13078,8 +13080,8 @@
       <c r="C89" s="20" t="s">
         <v>2651</v>
       </c>
-      <c r="D89" s="20">
-        <v>90</v>
+      <c r="D89" s="38">
+        <v>91</v>
       </c>
       <c r="E89" s="20" t="s">
         <v>398</v>
@@ -13104,8 +13106,8 @@
       <c r="C90" s="20" t="s">
         <v>2669</v>
       </c>
-      <c r="D90" s="20">
-        <v>91</v>
+      <c r="D90" s="38">
+        <v>92</v>
       </c>
       <c r="E90" s="20" t="s">
         <v>46</v>
@@ -13130,8 +13132,8 @@
       <c r="C91" s="20" t="s">
         <v>2666</v>
       </c>
-      <c r="D91" s="20">
-        <v>92</v>
+      <c r="D91" s="38">
+        <v>93</v>
       </c>
       <c r="E91" s="20" t="s">
         <v>46</v>
@@ -13156,8 +13158,8 @@
       <c r="C92" s="20" t="s">
         <v>2667</v>
       </c>
-      <c r="D92" s="20">
-        <v>93</v>
+      <c r="D92" s="38">
+        <v>94</v>
       </c>
       <c r="E92" s="20" t="s">
         <v>411</v>
@@ -13182,8 +13184,8 @@
       <c r="C93" s="20" t="s">
         <v>2656</v>
       </c>
-      <c r="D93" s="20">
-        <v>94</v>
+      <c r="D93" s="38">
+        <v>95</v>
       </c>
       <c r="E93" s="20" t="s">
         <v>46</v>
@@ -13208,8 +13210,8 @@
       <c r="C94" s="20" t="s">
         <v>2664</v>
       </c>
-      <c r="D94" s="20">
-        <v>95</v>
+      <c r="D94" s="38">
+        <v>96</v>
       </c>
       <c r="E94" s="20" t="s">
         <v>46</v>
@@ -13234,8 +13236,8 @@
       <c r="C95" s="20" t="s">
         <v>2662</v>
       </c>
-      <c r="D95" s="20">
-        <v>96</v>
+      <c r="D95" s="38">
+        <v>97</v>
       </c>
       <c r="E95" s="20" t="s">
         <v>46</v>
@@ -13260,8 +13262,8 @@
       <c r="C96" s="20" t="s">
         <v>2659</v>
       </c>
-      <c r="D96" s="20">
-        <v>97</v>
+      <c r="D96" s="38">
+        <v>98</v>
       </c>
       <c r="E96" s="20" t="s">
         <v>411</v>
@@ -13286,8 +13288,8 @@
       <c r="C97" s="20" t="s">
         <v>2667</v>
       </c>
-      <c r="D97" s="20">
-        <v>98</v>
+      <c r="D97" s="38">
+        <v>99</v>
       </c>
       <c r="E97" s="20" t="s">
         <v>431</v>
@@ -13312,8 +13314,8 @@
       <c r="C98" s="20" t="s">
         <v>2652</v>
       </c>
-      <c r="D98" s="20">
-        <v>99</v>
+      <c r="D98" s="38">
+        <v>100</v>
       </c>
       <c r="E98" s="20" t="s">
         <v>436</v>
@@ -13338,8 +13340,8 @@
       <c r="C99" s="20" t="s">
         <v>2654</v>
       </c>
-      <c r="D99" s="20">
-        <v>100</v>
+      <c r="D99" s="38">
+        <v>101</v>
       </c>
       <c r="E99" s="20" t="s">
         <v>441</v>
@@ -13364,8 +13366,8 @@
       <c r="C100" s="20" t="s">
         <v>2668</v>
       </c>
-      <c r="D100" s="20">
-        <v>101</v>
+      <c r="D100" s="38">
+        <v>102</v>
       </c>
       <c r="E100" s="20" t="s">
         <v>445</v>
@@ -13390,8 +13392,8 @@
       <c r="C101" s="20" t="s">
         <v>2665</v>
       </c>
-      <c r="D101" s="20">
-        <v>102</v>
+      <c r="D101" s="38">
+        <v>103</v>
       </c>
       <c r="E101" s="20" t="s">
         <v>449</v>
@@ -13416,8 +13418,8 @@
       <c r="C102" s="20" t="s">
         <v>2665</v>
       </c>
-      <c r="D102" s="20">
-        <v>103</v>
+      <c r="D102" s="38">
+        <v>104</v>
       </c>
       <c r="E102" s="20" t="s">
         <v>454</v>
@@ -13442,8 +13444,8 @@
       <c r="C103" s="20" t="s">
         <v>2659</v>
       </c>
-      <c r="D103" s="20">
-        <v>104</v>
+      <c r="D103" s="38">
+        <v>105</v>
       </c>
       <c r="E103" s="20" t="s">
         <v>458</v>
@@ -13468,8 +13470,8 @@
       <c r="C104" s="20" t="s">
         <v>2661</v>
       </c>
-      <c r="D104" s="20">
-        <v>105</v>
+      <c r="D104" s="38">
+        <v>106</v>
       </c>
       <c r="E104" s="20" t="s">
         <v>462</v>
@@ -13494,8 +13496,8 @@
       <c r="C105" s="20" t="s">
         <v>2655</v>
       </c>
-      <c r="D105" s="20">
-        <v>106</v>
+      <c r="D105" s="38">
+        <v>107</v>
       </c>
       <c r="E105" s="20" t="s">
         <v>466</v>
@@ -13520,8 +13522,8 @@
       <c r="C106" s="20" t="s">
         <v>2657</v>
       </c>
-      <c r="D106" s="20">
-        <v>107</v>
+      <c r="D106" s="38">
+        <v>108</v>
       </c>
       <c r="E106" s="20" t="s">
         <v>471</v>
@@ -13546,8 +13548,8 @@
       <c r="C107" s="20" t="s">
         <v>2650</v>
       </c>
-      <c r="D107" s="20">
-        <v>108</v>
+      <c r="D107" s="38">
+        <v>109</v>
       </c>
       <c r="E107" s="20" t="s">
         <v>476</v>
@@ -13569,8 +13571,8 @@
       <c r="C108" s="20" t="s">
         <v>2657</v>
       </c>
-      <c r="D108" s="20">
-        <v>109</v>
+      <c r="D108" s="38">
+        <v>110</v>
       </c>
       <c r="E108" s="20" t="s">
         <v>480</v>
@@ -13595,8 +13597,8 @@
       <c r="C109" s="20" t="s">
         <v>2661</v>
       </c>
-      <c r="D109" s="20">
-        <v>110</v>
+      <c r="D109" s="38">
+        <v>111</v>
       </c>
       <c r="E109" s="20" t="s">
         <v>485</v>
@@ -13621,8 +13623,8 @@
       <c r="C110" s="20" t="s">
         <v>2657</v>
       </c>
-      <c r="D110" s="20">
-        <v>111</v>
+      <c r="D110" s="38">
+        <v>112</v>
       </c>
       <c r="E110" s="20" t="s">
         <v>490</v>
@@ -13647,8 +13649,8 @@
       <c r="C111" s="20" t="s">
         <v>2663</v>
       </c>
-      <c r="D111" s="20">
-        <v>112</v>
+      <c r="D111" s="38">
+        <v>113</v>
       </c>
       <c r="E111" s="20" t="s">
         <v>495</v>
@@ -13673,8 +13675,8 @@
       <c r="C112" s="20" t="s">
         <v>2663</v>
       </c>
-      <c r="D112" s="20">
-        <v>113</v>
+      <c r="D112" s="38">
+        <v>114</v>
       </c>
       <c r="E112" s="20" t="s">
         <v>498</v>
@@ -13699,8 +13701,8 @@
       <c r="C113" s="20" t="s">
         <v>2668</v>
       </c>
-      <c r="D113" s="20">
-        <v>114</v>
+      <c r="D113" s="38">
+        <v>115</v>
       </c>
       <c r="E113" s="20" t="s">
         <v>503</v>
@@ -13725,8 +13727,8 @@
       <c r="C114" s="20" t="s">
         <v>2651</v>
       </c>
-      <c r="D114" s="20">
-        <v>115</v>
+      <c r="D114" s="38">
+        <v>116</v>
       </c>
       <c r="E114" s="20" t="s">
         <v>507</v>
@@ -13751,8 +13753,8 @@
       <c r="C115" s="20" t="s">
         <v>2669</v>
       </c>
-      <c r="D115" s="20">
-        <v>116</v>
+      <c r="D115" s="38">
+        <v>117</v>
       </c>
       <c r="E115" s="20" t="s">
         <v>512</v>
@@ -13777,8 +13779,8 @@
       <c r="C116" s="20" t="s">
         <v>2659</v>
       </c>
-      <c r="D116" s="20">
-        <v>117</v>
+      <c r="D116" s="38">
+        <v>118</v>
       </c>
       <c r="E116" s="20" t="s">
         <v>517</v>
@@ -13803,8 +13805,8 @@
       <c r="C117" s="20" t="s">
         <v>2661</v>
       </c>
-      <c r="D117" s="20">
-        <v>118</v>
+      <c r="D117" s="38">
+        <v>119</v>
       </c>
       <c r="E117" s="20" t="s">
         <v>522</v>
@@ -13829,8 +13831,8 @@
       <c r="C118" s="20" t="s">
         <v>2653</v>
       </c>
-      <c r="D118" s="20">
-        <v>119</v>
+      <c r="D118" s="38">
+        <v>120</v>
       </c>
       <c r="E118" s="20" t="s">
         <v>526</v>
@@ -13855,8 +13857,8 @@
       <c r="C119" s="20" t="s">
         <v>2665</v>
       </c>
-      <c r="D119" s="20">
-        <v>120</v>
+      <c r="D119" s="38">
+        <v>121</v>
       </c>
       <c r="E119" s="20" t="s">
         <v>531</v>
@@ -13881,8 +13883,8 @@
       <c r="C120" s="20" t="s">
         <v>2658</v>
       </c>
-      <c r="D120" s="20">
-        <v>121</v>
+      <c r="D120" s="38">
+        <v>122</v>
       </c>
       <c r="E120" s="20" t="s">
         <v>536</v>
@@ -13907,8 +13909,8 @@
       <c r="C121" s="20" t="s">
         <v>2652</v>
       </c>
-      <c r="D121" s="20">
-        <v>122</v>
+      <c r="D121" s="38">
+        <v>123</v>
       </c>
       <c r="E121" s="20" t="s">
         <v>541</v>
@@ -13933,8 +13935,8 @@
       <c r="C122" s="20" t="s">
         <v>2654</v>
       </c>
-      <c r="D122" s="20">
-        <v>123</v>
+      <c r="D122" s="38">
+        <v>124</v>
       </c>
       <c r="E122" s="20" t="s">
         <v>545</v>
@@ -13959,8 +13961,8 @@
       <c r="C123" s="20" t="s">
         <v>2657</v>
       </c>
-      <c r="D123" s="20">
-        <v>124</v>
+      <c r="D123" s="38">
+        <v>125</v>
       </c>
       <c r="E123" s="20" t="s">
         <v>550</v>
@@ -13982,8 +13984,8 @@
       <c r="C124" s="20" t="s">
         <v>2669</v>
       </c>
-      <c r="D124" s="20">
-        <v>125</v>
+      <c r="D124" s="38">
+        <v>126</v>
       </c>
       <c r="E124" s="20" t="s">
         <v>554</v>
@@ -14008,8 +14010,8 @@
       <c r="C125" s="20" t="s">
         <v>2667</v>
       </c>
-      <c r="D125" s="20">
-        <v>126</v>
+      <c r="D125" s="38">
+        <v>127</v>
       </c>
       <c r="E125" s="20" t="s">
         <v>556</v>
@@ -14034,8 +14036,8 @@
       <c r="C126" s="20" t="s">
         <v>2668</v>
       </c>
-      <c r="D126" s="20">
-        <v>127</v>
+      <c r="D126" s="38">
+        <v>128</v>
       </c>
       <c r="E126" s="20" t="s">
         <v>560</v>
@@ -14060,8 +14062,8 @@
       <c r="C127" s="20" t="s">
         <v>2652</v>
       </c>
-      <c r="D127" s="20">
-        <v>128</v>
+      <c r="D127" s="38">
+        <v>129</v>
       </c>
       <c r="E127" s="20" t="s">
         <v>566</v>
@@ -14086,8 +14088,8 @@
       <c r="C128" s="20" t="s">
         <v>2656</v>
       </c>
-      <c r="D128" s="20">
-        <v>129</v>
+      <c r="D128" s="38">
+        <v>130</v>
       </c>
       <c r="E128" s="20" t="s">
         <v>569</v>
@@ -14112,8 +14114,8 @@
       <c r="C129" s="20" t="s">
         <v>2653</v>
       </c>
-      <c r="D129" s="20">
-        <v>130</v>
+      <c r="D129" s="38">
+        <v>131</v>
       </c>
       <c r="E129" s="20" t="s">
         <v>574</v>
@@ -14135,8 +14137,8 @@
       <c r="C130" s="20" t="s">
         <v>2668</v>
       </c>
-      <c r="D130" s="20">
-        <v>131</v>
+      <c r="D130" s="38">
+        <v>132</v>
       </c>
       <c r="E130" s="20" t="s">
         <v>578</v>
@@ -14161,8 +14163,8 @@
       <c r="C131" s="20" t="s">
         <v>2666</v>
       </c>
-      <c r="D131" s="20">
-        <v>132</v>
+      <c r="D131" s="38">
+        <v>133</v>
       </c>
       <c r="E131" s="20" t="s">
         <v>581</v>
@@ -14187,8 +14189,8 @@
       <c r="C132" s="20" t="s">
         <v>2659</v>
       </c>
-      <c r="D132" s="20">
-        <v>133</v>
+      <c r="D132" s="38">
+        <v>134</v>
       </c>
       <c r="E132" s="20" t="s">
         <v>587</v>
@@ -14213,8 +14215,8 @@
       <c r="C133" s="20" t="s">
         <v>2651</v>
       </c>
-      <c r="D133" s="20">
-        <v>134</v>
+      <c r="D133" s="38">
+        <v>135</v>
       </c>
       <c r="E133" s="20" t="s">
         <v>590</v>
@@ -14239,8 +14241,8 @@
       <c r="C134" s="20" t="s">
         <v>2668</v>
       </c>
-      <c r="D134" s="20">
-        <v>135</v>
+      <c r="D134" s="38">
+        <v>136</v>
       </c>
       <c r="E134" s="20" t="s">
         <v>595</v>
@@ -14262,8 +14264,8 @@
       <c r="C135" s="20" t="s">
         <v>2663</v>
       </c>
-      <c r="D135" s="20">
-        <v>136</v>
+      <c r="D135" s="38">
+        <v>137</v>
       </c>
       <c r="E135" s="20" t="s">
         <v>597</v>
@@ -14288,8 +14290,8 @@
       <c r="C136" s="20" t="s">
         <v>2653</v>
       </c>
-      <c r="D136" s="20">
-        <v>137</v>
+      <c r="D136" s="38">
+        <v>138</v>
       </c>
       <c r="E136" s="20" t="s">
         <v>601</v>
@@ -14314,8 +14316,8 @@
       <c r="C137" s="20" t="s">
         <v>2653</v>
       </c>
-      <c r="D137" s="20">
-        <v>138</v>
+      <c r="D137" s="38">
+        <v>139</v>
       </c>
       <c r="E137" s="20" t="s">
         <v>606</v>
@@ -14340,8 +14342,8 @@
       <c r="C138" s="20" t="s">
         <v>2664</v>
       </c>
-      <c r="D138" s="20">
-        <v>139</v>
+      <c r="D138" s="38">
+        <v>140</v>
       </c>
       <c r="E138" s="20" t="s">
         <v>611</v>
@@ -14366,8 +14368,8 @@
       <c r="C139" s="20" t="s">
         <v>2666</v>
       </c>
-      <c r="D139" s="20">
-        <v>140</v>
+      <c r="D139" s="38">
+        <v>141</v>
       </c>
       <c r="E139" s="20" t="s">
         <v>616</v>
@@ -14392,8 +14394,8 @@
       <c r="C140" s="20" t="s">
         <v>2664</v>
       </c>
-      <c r="D140" s="20">
-        <v>141</v>
+      <c r="D140" s="38">
+        <v>142</v>
       </c>
       <c r="E140" s="20" t="s">
         <v>620</v>
@@ -14418,8 +14420,8 @@
       <c r="C141" s="20" t="s">
         <v>2668</v>
       </c>
-      <c r="D141" s="20">
-        <v>142</v>
+      <c r="D141" s="38">
+        <v>143</v>
       </c>
       <c r="E141" s="20" t="s">
         <v>625</v>
@@ -14444,8 +14446,8 @@
       <c r="C142" s="20" t="s">
         <v>2663</v>
       </c>
-      <c r="D142" s="20">
-        <v>143</v>
+      <c r="D142" s="38">
+        <v>144</v>
       </c>
       <c r="E142" s="20" t="s">
         <v>630</v>
@@ -14470,8 +14472,8 @@
       <c r="C143" s="20" t="s">
         <v>2667</v>
       </c>
-      <c r="D143" s="20">
-        <v>144</v>
+      <c r="D143" s="38">
+        <v>145</v>
       </c>
       <c r="E143" s="20" t="s">
         <v>633</v>
@@ -14496,8 +14498,8 @@
       <c r="C144" s="20" t="s">
         <v>2666</v>
       </c>
-      <c r="D144" s="20">
-        <v>145</v>
+      <c r="D144" s="38">
+        <v>146</v>
       </c>
       <c r="E144" s="20" t="s">
         <v>639</v>
@@ -14522,8 +14524,8 @@
       <c r="C145" s="20" t="s">
         <v>2668</v>
       </c>
-      <c r="D145" s="20">
-        <v>146</v>
+      <c r="D145" s="38">
+        <v>147</v>
       </c>
       <c r="E145" s="20" t="s">
         <v>644</v>
@@ -14548,8 +14550,8 @@
       <c r="C146" s="20" t="s">
         <v>2669</v>
       </c>
-      <c r="D146" s="20">
-        <v>147</v>
+      <c r="D146" s="38">
+        <v>148</v>
       </c>
       <c r="E146" s="20" t="s">
         <v>648</v>
@@ -14574,8 +14576,8 @@
       <c r="C147" s="20" t="s">
         <v>2661</v>
       </c>
-      <c r="D147" s="20">
-        <v>148</v>
+      <c r="D147" s="38">
+        <v>149</v>
       </c>
       <c r="E147" s="20" t="s">
         <v>653</v>
@@ -14600,8 +14602,8 @@
       <c r="C148" s="20" t="s">
         <v>2662</v>
       </c>
-      <c r="D148" s="20">
-        <v>149</v>
+      <c r="D148" s="38">
+        <v>150</v>
       </c>
       <c r="E148" s="20" t="s">
         <v>658</v>
@@ -14626,8 +14628,8 @@
       <c r="C149" s="29" t="s">
         <v>2662</v>
       </c>
-      <c r="D149" s="20">
-        <v>151</v>
+      <c r="D149" s="38">
+        <v>152</v>
       </c>
       <c r="E149" s="20" t="s">
         <v>663</v>
@@ -14652,8 +14654,8 @@
       <c r="C150" s="20" t="s">
         <v>2651</v>
       </c>
-      <c r="D150" s="20">
-        <v>152</v>
+      <c r="D150" s="38">
+        <v>153</v>
       </c>
       <c r="E150" s="20" t="s">
         <v>667</v>
@@ -14678,8 +14680,8 @@
       <c r="C151" s="20" t="s">
         <v>2665</v>
       </c>
-      <c r="D151" s="20">
-        <v>153</v>
+      <c r="D151" s="38">
+        <v>154</v>
       </c>
       <c r="E151" s="29" t="s">
         <v>672</v>
@@ -14704,8 +14706,8 @@
       <c r="C152" s="20" t="s">
         <v>2658</v>
       </c>
-      <c r="D152" s="20">
-        <v>154</v>
+      <c r="D152" s="38">
+        <v>155</v>
       </c>
       <c r="E152" s="29" t="s">
         <v>677</v>
@@ -14730,8 +14732,8 @@
       <c r="C153" s="20" t="s">
         <v>2654</v>
       </c>
-      <c r="D153" s="20">
-        <v>155</v>
+      <c r="D153" s="38">
+        <v>156</v>
       </c>
       <c r="E153" s="20" t="s">
         <v>681</v>
@@ -14756,8 +14758,8 @@
       <c r="C154" s="20" t="s">
         <v>2660</v>
       </c>
-      <c r="D154" s="20">
-        <v>156</v>
+      <c r="D154" s="38">
+        <v>157</v>
       </c>
       <c r="E154" s="20" t="s">
         <v>685</v>
@@ -14782,8 +14784,8 @@
       <c r="C155" s="20" t="s">
         <v>2663</v>
       </c>
-      <c r="D155" s="20">
-        <v>157</v>
+      <c r="D155" s="38">
+        <v>158</v>
       </c>
       <c r="E155" s="20" t="s">
         <v>690</v>
@@ -14808,8 +14810,8 @@
       <c r="C156" s="20" t="s">
         <v>2669</v>
       </c>
-      <c r="D156" s="20">
-        <v>158</v>
+      <c r="D156" s="38">
+        <v>159</v>
       </c>
       <c r="E156" s="20" t="s">
         <v>694</v>
@@ -14834,8 +14836,8 @@
       <c r="C157" s="20" t="s">
         <v>2659</v>
       </c>
-      <c r="D157" s="20">
-        <v>159</v>
+      <c r="D157" s="38">
+        <v>160</v>
       </c>
       <c r="E157" s="20" t="s">
         <v>699</v>
@@ -14860,8 +14862,8 @@
       <c r="C158" s="20" t="s">
         <v>2662</v>
       </c>
-      <c r="D158" s="20">
-        <v>160</v>
+      <c r="D158" s="38">
+        <v>161</v>
       </c>
       <c r="E158" s="20" t="s">
         <v>704</v>
@@ -14883,8 +14885,8 @@
       <c r="C159" s="20" t="s">
         <v>2659</v>
       </c>
-      <c r="D159" s="20">
-        <v>161</v>
+      <c r="D159" s="38">
+        <v>162</v>
       </c>
       <c r="E159" s="20" t="s">
         <v>708</v>
@@ -14909,8 +14911,8 @@
       <c r="C160" s="20" t="s">
         <v>2663</v>
       </c>
-      <c r="D160" s="20">
-        <v>162</v>
+      <c r="D160" s="38">
+        <v>163</v>
       </c>
       <c r="E160" s="20" t="s">
         <v>712</v>
@@ -14935,8 +14937,8 @@
       <c r="C161" s="20" t="s">
         <v>2659</v>
       </c>
-      <c r="D161" s="20">
-        <v>163</v>
+      <c r="D161" s="38">
+        <v>164</v>
       </c>
       <c r="E161" s="20" t="s">
         <v>716</v>
@@ -14964,8 +14966,8 @@
       <c r="C162" s="20" t="s">
         <v>2654</v>
       </c>
-      <c r="D162" s="20">
-        <v>164</v>
+      <c r="D162" s="38">
+        <v>165</v>
       </c>
       <c r="E162" s="20" t="s">
         <v>722</v>
@@ -14990,8 +14992,8 @@
       <c r="C163" s="20" t="s">
         <v>2665</v>
       </c>
-      <c r="D163" s="20">
-        <v>165</v>
+      <c r="D163" s="38">
+        <v>166</v>
       </c>
       <c r="E163" s="20" t="s">
         <v>727</v>
@@ -15019,8 +15021,8 @@
       <c r="C164" s="29" t="s">
         <v>2666</v>
       </c>
-      <c r="D164" s="20">
-        <v>166</v>
+      <c r="D164" s="38">
+        <v>167</v>
       </c>
       <c r="E164" s="20" t="s">
         <v>733</v>
@@ -15045,8 +15047,8 @@
       <c r="C165" s="20" t="s">
         <v>2657</v>
       </c>
-      <c r="D165" s="20">
-        <v>167</v>
+      <c r="D165" s="38">
+        <v>168</v>
       </c>
       <c r="E165" s="20" t="s">
         <v>738</v>
@@ -15068,8 +15070,8 @@
       <c r="C166" s="20" t="s">
         <v>2659</v>
       </c>
-      <c r="D166" s="20">
-        <v>168</v>
+      <c r="D166" s="38">
+        <v>169</v>
       </c>
       <c r="E166" s="20" t="s">
         <v>739</v>
@@ -15091,8 +15093,8 @@
       <c r="C167" s="20" t="s">
         <v>2665</v>
       </c>
-      <c r="D167" s="20">
-        <v>169</v>
+      <c r="D167" s="38">
+        <v>170</v>
       </c>
       <c r="E167" s="29" t="s">
         <v>742</v>
@@ -15117,8 +15119,8 @@
       <c r="C168" s="20" t="s">
         <v>2650</v>
       </c>
-      <c r="D168" s="20">
-        <v>170</v>
+      <c r="D168" s="38">
+        <v>171</v>
       </c>
       <c r="E168" s="20" t="s">
         <v>746</v>
@@ -15143,8 +15145,8 @@
       <c r="C169" s="20" t="s">
         <v>2658</v>
       </c>
-      <c r="D169" s="20">
-        <v>171</v>
+      <c r="D169" s="38">
+        <v>172</v>
       </c>
       <c r="E169" s="20" t="s">
         <v>750</v>
@@ -15172,8 +15174,8 @@
       <c r="C170" s="20" t="s">
         <v>2656</v>
       </c>
-      <c r="D170" s="20">
-        <v>172</v>
+      <c r="D170" s="38">
+        <v>173</v>
       </c>
       <c r="E170" s="20" t="s">
         <v>334</v>
@@ -15201,8 +15203,8 @@
       <c r="C171" s="20" t="s">
         <v>2667</v>
       </c>
-      <c r="D171" s="20">
-        <v>173</v>
+      <c r="D171" s="38">
+        <v>174</v>
       </c>
       <c r="E171" s="20" t="s">
         <v>757</v>
@@ -15230,8 +15232,8 @@
       <c r="C172" s="20" t="s">
         <v>2658</v>
       </c>
-      <c r="D172" s="20">
-        <v>174</v>
+      <c r="D172" s="38">
+        <v>175</v>
       </c>
       <c r="E172" s="20" t="s">
         <v>763</v>
@@ -15259,8 +15261,8 @@
       <c r="C173" s="20" t="s">
         <v>2660</v>
       </c>
-      <c r="D173" s="20">
-        <v>175</v>
+      <c r="D173" s="38">
+        <v>176</v>
       </c>
       <c r="E173" s="20" t="s">
         <v>769</v>
@@ -15288,8 +15290,8 @@
       <c r="C174" s="20" t="s">
         <v>2668</v>
       </c>
-      <c r="D174" s="20">
-        <v>176</v>
+      <c r="D174" s="38">
+        <v>177</v>
       </c>
       <c r="E174" s="20" t="s">
         <v>775</v>
@@ -15314,8 +15316,8 @@
       <c r="C175" s="20" t="s">
         <v>2650</v>
       </c>
-      <c r="D175" s="20">
-        <v>177</v>
+      <c r="D175" s="38">
+        <v>178</v>
       </c>
       <c r="E175" s="20" t="s">
         <v>780</v>
@@ -15340,8 +15342,8 @@
       <c r="C176" s="20" t="s">
         <v>2661</v>
       </c>
-      <c r="D176" s="20">
-        <v>178</v>
+      <c r="D176" s="38">
+        <v>179</v>
       </c>
       <c r="E176" s="20" t="s">
         <v>785</v>
@@ -15366,8 +15368,8 @@
       <c r="C177" s="20" t="s">
         <v>2664</v>
       </c>
-      <c r="D177" s="20">
-        <v>179</v>
+      <c r="D177" s="38">
+        <v>180</v>
       </c>
       <c r="E177" s="20" t="s">
         <v>790</v>
@@ -15392,8 +15394,8 @@
       <c r="C178" s="20" t="s">
         <v>2658</v>
       </c>
-      <c r="D178" s="20">
-        <v>180</v>
+      <c r="D178" s="38">
+        <v>181</v>
       </c>
       <c r="E178" s="20" t="s">
         <v>794</v>
@@ -15418,8 +15420,8 @@
       <c r="C179" s="20" t="s">
         <v>2669</v>
       </c>
-      <c r="D179" s="20">
-        <v>181</v>
+      <c r="D179" s="38">
+        <v>182</v>
       </c>
       <c r="E179" s="20" t="s">
         <v>799</v>
@@ -15444,8 +15446,8 @@
       <c r="C180" s="20" t="s">
         <v>2655</v>
       </c>
-      <c r="D180" s="20">
-        <v>182</v>
+      <c r="D180" s="38">
+        <v>183</v>
       </c>
       <c r="E180" s="20" t="s">
         <v>802</v>
@@ -15467,8 +15469,8 @@
       <c r="C181" s="20" t="s">
         <v>2657</v>
       </c>
-      <c r="D181" s="20">
-        <v>183</v>
+      <c r="D181" s="38">
+        <v>184</v>
       </c>
       <c r="E181" s="20" t="s">
         <v>807</v>
@@ -15493,8 +15495,8 @@
       <c r="C182" s="20" t="s">
         <v>2650</v>
       </c>
-      <c r="D182" s="20">
-        <v>184</v>
+      <c r="D182" s="38">
+        <v>185</v>
       </c>
       <c r="E182" s="20" t="s">
         <v>811</v>
@@ -15519,8 +15521,8 @@
       <c r="C183" s="20" t="s">
         <v>2656</v>
       </c>
-      <c r="D183" s="20">
-        <v>185</v>
+      <c r="D183" s="38">
+        <v>186</v>
       </c>
       <c r="E183" s="20" t="s">
         <v>816</v>
@@ -15545,8 +15547,8 @@
       <c r="C184" s="20" t="s">
         <v>2668</v>
       </c>
-      <c r="D184" s="20">
-        <v>186</v>
+      <c r="D184" s="38">
+        <v>187</v>
       </c>
       <c r="E184" s="20" t="s">
         <v>821</v>
@@ -15571,8 +15573,8 @@
       <c r="C185" s="20" t="s">
         <v>2657</v>
       </c>
-      <c r="D185" s="20">
-        <v>187</v>
+      <c r="D185" s="38">
+        <v>188</v>
       </c>
       <c r="E185" s="20" t="s">
         <v>826</v>
@@ -15597,8 +15599,8 @@
       <c r="C186" s="20" t="s">
         <v>2653</v>
       </c>
-      <c r="D186" s="20">
-        <v>188</v>
+      <c r="D186" s="38">
+        <v>189</v>
       </c>
       <c r="E186" s="20" t="s">
         <v>831</v>
@@ -15623,8 +15625,8 @@
       <c r="C187" s="20" t="s">
         <v>2660</v>
       </c>
-      <c r="D187" s="20">
-        <v>189</v>
+      <c r="D187" s="38">
+        <v>190</v>
       </c>
       <c r="E187" s="20" t="s">
         <v>836</v>
@@ -15649,8 +15651,8 @@
       <c r="C188" s="20" t="s">
         <v>2651</v>
       </c>
-      <c r="D188" s="20">
-        <v>190</v>
+      <c r="D188" s="38">
+        <v>191</v>
       </c>
       <c r="E188" s="20" t="s">
         <v>840</v>
@@ -15675,8 +15677,8 @@
       <c r="C189" s="20" t="s">
         <v>2668</v>
       </c>
-      <c r="D189" s="20">
-        <v>191</v>
+      <c r="D189" s="38">
+        <v>192</v>
       </c>
       <c r="E189" s="20" t="s">
         <v>845</v>
@@ -15701,8 +15703,8 @@
       <c r="C190" s="20" t="s">
         <v>2655</v>
       </c>
-      <c r="D190" s="20">
-        <v>192</v>
+      <c r="D190" s="38">
+        <v>193</v>
       </c>
       <c r="E190" s="20" t="s">
         <v>850</v>
@@ -15727,8 +15729,8 @@
       <c r="C191" s="20" t="s">
         <v>2669</v>
       </c>
-      <c r="D191" s="20">
-        <v>193</v>
+      <c r="D191" s="38">
+        <v>194</v>
       </c>
       <c r="E191" s="20" t="s">
         <v>826</v>
@@ -15753,8 +15755,8 @@
       <c r="C192" s="20" t="s">
         <v>2662</v>
       </c>
-      <c r="D192" s="20">
-        <v>194</v>
+      <c r="D192" s="38">
+        <v>195</v>
       </c>
       <c r="E192" s="20" t="s">
         <v>857</v>
@@ -15779,8 +15781,8 @@
       <c r="C193" s="20" t="s">
         <v>2669</v>
       </c>
-      <c r="D193" s="20">
-        <v>195</v>
+      <c r="D193" s="38">
+        <v>196</v>
       </c>
       <c r="E193" s="20" t="s">
         <v>861</v>
@@ -15805,8 +15807,8 @@
       <c r="C194" s="20" t="s">
         <v>2664</v>
       </c>
-      <c r="D194" s="20">
-        <v>196</v>
+      <c r="D194" s="38">
+        <v>197</v>
       </c>
       <c r="E194" s="20" t="s">
         <v>866</v>
@@ -15831,8 +15833,8 @@
       <c r="C195" s="20" t="s">
         <v>2653</v>
       </c>
-      <c r="D195" s="20">
-        <v>197</v>
+      <c r="D195" s="38">
+        <v>198</v>
       </c>
       <c r="E195" s="20" t="s">
         <v>871</v>
@@ -15857,8 +15859,8 @@
       <c r="C196" s="20" t="s">
         <v>2667</v>
       </c>
-      <c r="D196" s="20">
-        <v>198</v>
+      <c r="D196" s="38">
+        <v>199</v>
       </c>
       <c r="E196" s="20" t="s">
         <v>876</v>
@@ -15883,8 +15885,8 @@
       <c r="C197" s="20" t="s">
         <v>2661</v>
       </c>
-      <c r="D197" s="20">
-        <v>199</v>
+      <c r="D197" s="38">
+        <v>200</v>
       </c>
       <c r="E197" s="20" t="s">
         <v>881</v>
@@ -15909,8 +15911,8 @@
       <c r="C198" s="20" t="s">
         <v>2652</v>
       </c>
-      <c r="D198" s="20">
-        <v>200</v>
+      <c r="D198" s="38">
+        <v>201</v>
       </c>
       <c r="E198" s="20" t="s">
         <v>884</v>
@@ -15935,8 +15937,8 @@
       <c r="C199" s="20" t="s">
         <v>2663</v>
       </c>
-      <c r="D199" s="20">
-        <v>201</v>
+      <c r="D199" s="38">
+        <v>202</v>
       </c>
       <c r="E199" s="20" t="s">
         <v>889</v>
@@ -15961,8 +15963,8 @@
       <c r="C200" s="20" t="s">
         <v>2666</v>
       </c>
-      <c r="D200" s="20">
-        <v>202</v>
+      <c r="D200" s="38">
+        <v>203</v>
       </c>
       <c r="E200" s="20" t="s">
         <v>894</v>
@@ -15987,8 +15989,8 @@
       <c r="C201" s="20" t="s">
         <v>2664</v>
       </c>
-      <c r="D201" s="20">
-        <v>203</v>
+      <c r="D201" s="38">
+        <v>204</v>
       </c>
       <c r="E201" s="20" t="s">
         <v>898</v>
@@ -16013,8 +16015,8 @@
       <c r="C202" s="20" t="s">
         <v>2650</v>
       </c>
-      <c r="D202" s="20">
-        <v>204</v>
+      <c r="D202" s="38">
+        <v>205</v>
       </c>
       <c r="E202" s="20" t="s">
         <v>903</v>
@@ -16036,8 +16038,8 @@
       <c r="C203" s="20" t="s">
         <v>2667</v>
       </c>
-      <c r="D203" s="20">
-        <v>205</v>
+      <c r="D203" s="38">
+        <v>206</v>
       </c>
       <c r="E203" s="20" t="s">
         <v>907</v>
@@ -16062,8 +16064,8 @@
       <c r="C204" s="20" t="s">
         <v>2652</v>
       </c>
-      <c r="D204" s="20">
-        <v>206</v>
+      <c r="D204" s="38">
+        <v>207</v>
       </c>
       <c r="E204" s="20" t="s">
         <v>911</v>
@@ -16088,8 +16090,8 @@
       <c r="C205" s="20" t="s">
         <v>2657</v>
       </c>
-      <c r="D205" s="20">
-        <v>207</v>
+      <c r="D205" s="38">
+        <v>208</v>
       </c>
       <c r="E205" s="20" t="s">
         <v>914</v>
@@ -16114,8 +16116,8 @@
       <c r="C206" s="20" t="s">
         <v>2658</v>
       </c>
-      <c r="D206" s="20">
-        <v>208</v>
+      <c r="D206" s="38">
+        <v>209</v>
       </c>
       <c r="E206" s="20" t="s">
         <v>919</v>
@@ -16140,8 +16142,8 @@
       <c r="C207" s="20" t="s">
         <v>2661</v>
       </c>
-      <c r="D207" s="20">
-        <v>209</v>
+      <c r="D207" s="38">
+        <v>210</v>
       </c>
       <c r="E207" s="20" t="s">
         <v>924</v>
@@ -16166,8 +16168,8 @@
       <c r="C208" s="20" t="s">
         <v>2658</v>
       </c>
-      <c r="D208" s="20">
-        <v>210</v>
+      <c r="D208" s="38">
+        <v>211</v>
       </c>
       <c r="E208" s="20" t="s">
         <v>929</v>
@@ -16192,8 +16194,8 @@
       <c r="C209" s="20" t="s">
         <v>2666</v>
       </c>
-      <c r="D209" s="20">
-        <v>211</v>
+      <c r="D209" s="38">
+        <v>212</v>
       </c>
       <c r="E209" s="20" t="s">
         <v>933</v>
@@ -16218,8 +16220,8 @@
       <c r="C210" s="20" t="s">
         <v>2658</v>
       </c>
-      <c r="D210" s="20">
-        <v>212</v>
+      <c r="D210" s="38">
+        <v>213</v>
       </c>
       <c r="E210" s="20" t="s">
         <v>938</v>
@@ -16244,8 +16246,8 @@
       <c r="C211" s="20" t="s">
         <v>2665</v>
       </c>
-      <c r="D211" s="20">
-        <v>213</v>
+      <c r="D211" s="38">
+        <v>214</v>
       </c>
       <c r="E211" s="20" t="s">
         <v>941</v>
@@ -16270,8 +16272,8 @@
       <c r="C212" s="20" t="s">
         <v>2668</v>
       </c>
-      <c r="D212" s="20">
-        <v>214</v>
+      <c r="D212" s="38">
+        <v>215</v>
       </c>
       <c r="E212" s="20" t="s">
         <v>947</v>
@@ -16293,8 +16295,8 @@
       <c r="C213" s="20" t="s">
         <v>2650</v>
       </c>
-      <c r="D213" s="20">
-        <v>215</v>
+      <c r="D213" s="38">
+        <v>216</v>
       </c>
       <c r="E213" s="20" t="s">
         <v>951</v>
@@ -16319,8 +16321,8 @@
       <c r="C214" s="20" t="s">
         <v>2660</v>
       </c>
-      <c r="D214" s="20">
-        <v>216</v>
+      <c r="D214" s="38">
+        <v>217</v>
       </c>
       <c r="E214" s="20" t="s">
         <v>956</v>
@@ -16345,8 +16347,8 @@
       <c r="C215" s="20" t="s">
         <v>2668</v>
       </c>
-      <c r="D215" s="20">
-        <v>217</v>
+      <c r="D215" s="38">
+        <v>218</v>
       </c>
       <c r="E215" s="20" t="s">
         <v>958</v>
@@ -16371,8 +16373,8 @@
       <c r="C216" s="20" t="s">
         <v>2669</v>
       </c>
-      <c r="D216" s="20">
-        <v>218</v>
+      <c r="D216" s="38">
+        <v>219</v>
       </c>
       <c r="E216" s="20" t="s">
         <v>963</v>
@@ -16397,8 +16399,8 @@
       <c r="C217" s="20" t="s">
         <v>2667</v>
       </c>
-      <c r="D217" s="20">
-        <v>219</v>
+      <c r="D217" s="38">
+        <v>220</v>
       </c>
       <c r="E217" s="20" t="s">
         <v>968</v>
@@ -16423,8 +16425,8 @@
       <c r="C218" s="20" t="s">
         <v>2663</v>
       </c>
-      <c r="D218" s="20">
-        <v>220</v>
+      <c r="D218" s="38">
+        <v>221</v>
       </c>
       <c r="E218" s="20" t="s">
         <v>971</v>
@@ -16449,8 +16451,8 @@
       <c r="C219" s="20" t="s">
         <v>2658</v>
       </c>
-      <c r="D219" s="20">
-        <v>221</v>
+      <c r="D219" s="38">
+        <v>222</v>
       </c>
       <c r="E219" s="20" t="s">
         <v>977</v>
@@ -16475,8 +16477,8 @@
       <c r="C220" s="20" t="s">
         <v>2660</v>
       </c>
-      <c r="D220" s="20">
-        <v>222</v>
+      <c r="D220" s="38">
+        <v>223</v>
       </c>
       <c r="E220" s="20" t="s">
         <v>981</v>
@@ -16498,8 +16500,8 @@
       <c r="C221" s="20" t="s">
         <v>2666</v>
       </c>
-      <c r="D221" s="20">
-        <v>223</v>
+      <c r="D221" s="38">
+        <v>224</v>
       </c>
       <c r="E221" s="20" t="s">
         <v>985</v>
@@ -16524,8 +16526,8 @@
       <c r="C222" s="20" t="s">
         <v>2659</v>
       </c>
-      <c r="D222" s="20">
-        <v>224</v>
+      <c r="D222" s="38">
+        <v>225</v>
       </c>
       <c r="E222" s="20" t="s">
         <v>990</v>
@@ -16550,8 +16552,8 @@
       <c r="C223" s="20" t="s">
         <v>2654</v>
       </c>
-      <c r="D223" s="20">
-        <v>225</v>
+      <c r="D223" s="38">
+        <v>226</v>
       </c>
       <c r="E223" s="20" t="s">
         <v>995</v>
@@ -16576,8 +16578,8 @@
       <c r="C224" s="20" t="s">
         <v>2650</v>
       </c>
-      <c r="D224" s="20">
-        <v>226</v>
+      <c r="D224" s="38">
+        <v>227</v>
       </c>
       <c r="E224" s="20" t="s">
         <v>1000</v>
@@ -16602,8 +16604,8 @@
       <c r="C225" s="20" t="s">
         <v>2665</v>
       </c>
-      <c r="D225" s="20">
-        <v>227</v>
+      <c r="D225" s="38">
+        <v>228</v>
       </c>
       <c r="E225" s="20" t="s">
         <v>1004</v>
@@ -16628,8 +16630,8 @@
       <c r="C226" s="20" t="s">
         <v>2666</v>
       </c>
-      <c r="D226" s="20">
-        <v>228</v>
+      <c r="D226" s="38">
+        <v>229</v>
       </c>
       <c r="E226" s="20" t="s">
         <v>1009</v>
@@ -16651,8 +16653,8 @@
       <c r="C227" s="20" t="s">
         <v>2652</v>
       </c>
-      <c r="D227" s="20">
-        <v>229</v>
+      <c r="D227" s="38">
+        <v>230</v>
       </c>
       <c r="E227" s="20" t="s">
         <v>1013</v>
@@ -16677,8 +16679,8 @@
       <c r="C228" s="20" t="s">
         <v>2657</v>
       </c>
-      <c r="D228" s="20">
-        <v>230</v>
+      <c r="D228" s="38">
+        <v>231</v>
       </c>
       <c r="E228" s="20" t="s">
         <v>1018</v>
@@ -16700,8 +16702,8 @@
       <c r="C229" s="20" t="s">
         <v>2663</v>
       </c>
-      <c r="D229" s="20">
-        <v>231</v>
+      <c r="D229" s="38">
+        <v>232</v>
       </c>
       <c r="E229" s="20" t="s">
         <v>1021</v>
@@ -16726,8 +16728,8 @@
       <c r="C230" s="20" t="s">
         <v>2654</v>
       </c>
-      <c r="D230" s="20">
-        <v>232</v>
+      <c r="D230" s="38">
+        <v>233</v>
       </c>
       <c r="E230" s="20" t="s">
         <v>1026</v>
@@ -16752,8 +16754,8 @@
       <c r="C231" s="20" t="s">
         <v>2662</v>
       </c>
-      <c r="D231" s="20">
-        <v>233</v>
+      <c r="D231" s="38">
+        <v>234</v>
       </c>
       <c r="E231" s="20" t="s">
         <v>1031</v>
@@ -16775,8 +16777,8 @@
       <c r="C232" s="20" t="s">
         <v>2667</v>
       </c>
-      <c r="D232" s="20">
-        <v>234</v>
+      <c r="D232" s="38">
+        <v>235</v>
       </c>
       <c r="E232" s="20" t="s">
         <v>1033</v>
@@ -16801,8 +16803,8 @@
       <c r="C233" s="20" t="s">
         <v>2660</v>
       </c>
-      <c r="D233" s="20">
-        <v>235</v>
+      <c r="D233" s="38">
+        <v>236</v>
       </c>
       <c r="E233" s="20" t="s">
         <v>1039</v>
@@ -16827,8 +16829,8 @@
       <c r="C234" s="26" t="s">
         <v>2653</v>
       </c>
-      <c r="D234" s="20">
-        <v>236</v>
+      <c r="D234" s="38">
+        <v>237</v>
       </c>
       <c r="E234" s="20" t="s">
         <v>1044</v>
@@ -16853,8 +16855,8 @@
       <c r="C235" s="20" t="s">
         <v>2662</v>
       </c>
-      <c r="D235" s="20">
-        <v>237</v>
+      <c r="D235" s="38">
+        <v>238</v>
       </c>
       <c r="E235" s="20" t="s">
         <v>1049</v>
@@ -16879,8 +16881,8 @@
       <c r="C236" s="20" t="s">
         <v>2657</v>
       </c>
-      <c r="D236" s="20">
-        <v>238</v>
+      <c r="D236" s="38">
+        <v>239</v>
       </c>
       <c r="E236" s="20" t="s">
         <v>1054</v>
@@ -16905,8 +16907,8 @@
       <c r="C237" s="20" t="s">
         <v>2665</v>
       </c>
-      <c r="D237" s="20">
-        <v>239</v>
+      <c r="D237" s="38">
+        <v>240</v>
       </c>
       <c r="E237" s="26" t="s">
         <v>1058</v>
@@ -16925,8 +16927,8 @@
       <c r="C238" s="20" t="s">
         <v>2658</v>
       </c>
-      <c r="D238" s="20">
-        <v>240</v>
+      <c r="D238" s="38">
+        <v>241</v>
       </c>
       <c r="E238" s="20" t="s">
         <v>1061</v>
@@ -16951,8 +16953,8 @@
       <c r="C239" s="20" t="s">
         <v>2665</v>
       </c>
-      <c r="D239" s="20">
-        <v>241</v>
+      <c r="D239" s="38">
+        <v>242</v>
       </c>
       <c r="E239" s="20" t="s">
         <v>1066</v>
@@ -16977,8 +16979,8 @@
       <c r="C240" s="20" t="s">
         <v>2660</v>
       </c>
-      <c r="D240" s="20">
-        <v>242</v>
+      <c r="D240" s="38">
+        <v>243</v>
       </c>
       <c r="E240" s="20" t="s">
         <v>1071</v>
@@ -17003,8 +17005,8 @@
       <c r="C241" s="20" t="s">
         <v>2666</v>
       </c>
-      <c r="D241" s="20">
-        <v>243</v>
+      <c r="D241" s="38">
+        <v>244</v>
       </c>
       <c r="E241" s="20" t="s">
         <v>1076</v>
@@ -17029,8 +17031,8 @@
       <c r="C242" s="20" t="s">
         <v>2660</v>
       </c>
-      <c r="D242" s="20">
-        <v>244</v>
+      <c r="D242" s="38">
+        <v>245</v>
       </c>
       <c r="E242" s="20" t="s">
         <v>1081</v>
@@ -17055,8 +17057,8 @@
       <c r="C243" s="20" t="s">
         <v>2665</v>
       </c>
-      <c r="D243" s="20">
-        <v>245</v>
+      <c r="D243" s="38">
+        <v>246</v>
       </c>
       <c r="E243" s="20" t="s">
         <v>1085</v>
@@ -17081,8 +17083,8 @@
       <c r="C244" s="20" t="s">
         <v>2665</v>
       </c>
-      <c r="D244" s="20">
-        <v>246</v>
+      <c r="D244" s="38">
+        <v>247</v>
       </c>
       <c r="E244" s="20" t="s">
         <v>1089</v>
@@ -17107,8 +17109,8 @@
       <c r="C245" s="20" t="s">
         <v>2665</v>
       </c>
-      <c r="D245" s="20">
-        <v>247</v>
+      <c r="D245" s="38">
+        <v>248</v>
       </c>
       <c r="E245" s="20" t="s">
         <v>1094</v>
@@ -17133,8 +17135,8 @@
       <c r="C246" s="20" t="s">
         <v>2653</v>
       </c>
-      <c r="D246" s="20">
-        <v>248</v>
+      <c r="D246" s="38">
+        <v>249</v>
       </c>
       <c r="E246" s="20" t="s">
         <v>1099</v>
@@ -17159,8 +17161,8 @@
       <c r="C247" s="20" t="s">
         <v>2664</v>
       </c>
-      <c r="D247" s="20">
-        <v>249</v>
+      <c r="D247" s="38">
+        <v>250</v>
       </c>
       <c r="E247" s="20" t="s">
         <v>1104</v>
@@ -17185,8 +17187,8 @@
       <c r="C248" s="20" t="s">
         <v>2666</v>
       </c>
-      <c r="D248" s="20">
-        <v>250</v>
+      <c r="D248" s="38">
+        <v>251</v>
       </c>
       <c r="E248" s="20" t="s">
         <v>1108</v>
@@ -17211,8 +17213,8 @@
       <c r="C249" s="20" t="s">
         <v>2665</v>
       </c>
-      <c r="D249" s="20">
-        <v>251</v>
+      <c r="D249" s="38">
+        <v>252</v>
       </c>
       <c r="E249" s="20" t="s">
         <v>1113</v>
@@ -17237,8 +17239,8 @@
       <c r="C250" s="20" t="s">
         <v>2662</v>
       </c>
-      <c r="D250" s="20">
-        <v>252</v>
+      <c r="D250" s="38">
+        <v>253</v>
       </c>
       <c r="E250" s="20" t="s">
         <v>1118</v>
@@ -17263,8 +17265,8 @@
       <c r="C251" s="20" t="s">
         <v>2653</v>
       </c>
-      <c r="D251" s="20">
-        <v>253</v>
+      <c r="D251" s="38">
+        <v>254</v>
       </c>
       <c r="E251" s="20" t="s">
         <v>1123</v>
@@ -17286,8 +17288,8 @@
       <c r="C252" s="32" t="s">
         <v>2667</v>
       </c>
-      <c r="D252" s="20">
-        <v>254</v>
+      <c r="D252" s="38">
+        <v>255</v>
       </c>
       <c r="E252" s="20" t="s">
         <v>1127</v>
@@ -17312,8 +17314,8 @@
       <c r="C253" s="20" t="s">
         <v>2652</v>
       </c>
-      <c r="D253" s="20">
-        <v>255</v>
+      <c r="D253" s="38">
+        <v>256</v>
       </c>
       <c r="E253" s="20" t="s">
         <v>1131</v>
@@ -17335,8 +17337,8 @@
       <c r="C254" s="32" t="s">
         <v>2661</v>
       </c>
-      <c r="D254" s="20">
-        <v>256</v>
+      <c r="D254" s="38">
+        <v>257</v>
       </c>
       <c r="E254" s="20" t="s">
         <v>1135</v>
@@ -17361,8 +17363,8 @@
       <c r="C255" s="20" t="s">
         <v>2662</v>
       </c>
-      <c r="D255" s="20">
-        <v>257</v>
+      <c r="D255" s="38">
+        <v>258</v>
       </c>
       <c r="E255" s="32" t="s">
         <v>1139</v>
@@ -17387,8 +17389,8 @@
       <c r="C256" s="20" t="s">
         <v>2660</v>
       </c>
-      <c r="D256" s="20">
-        <v>258</v>
+      <c r="D256" s="38">
+        <v>259</v>
       </c>
       <c r="E256" s="20" t="s">
         <v>46</v>
@@ -17413,8 +17415,8 @@
       <c r="C257" s="20" t="s">
         <v>2658</v>
       </c>
-      <c r="D257" s="20">
-        <v>259</v>
+      <c r="D257" s="38">
+        <v>260</v>
       </c>
       <c r="E257" s="32" t="s">
         <v>1148</v>
@@ -17439,8 +17441,8 @@
       <c r="C258" s="20" t="s">
         <v>2664</v>
       </c>
-      <c r="D258" s="20">
-        <v>260</v>
+      <c r="D258" s="38">
+        <v>261</v>
       </c>
       <c r="E258" s="20" t="s">
         <v>1148</v>
@@ -17465,8 +17467,8 @@
       <c r="C259" s="20" t="s">
         <v>2655</v>
       </c>
-      <c r="D259" s="20">
-        <v>261</v>
+      <c r="D259" s="38">
+        <v>262</v>
       </c>
       <c r="E259" s="20" t="s">
         <v>1148</v>
@@ -17491,8 +17493,8 @@
       <c r="C260" s="20" t="s">
         <v>2667</v>
       </c>
-      <c r="D260" s="20">
-        <v>262</v>
+      <c r="D260" s="38">
+        <v>263</v>
       </c>
       <c r="E260" s="20" t="s">
         <v>1156</v>
@@ -17517,8 +17519,8 @@
       <c r="C261" s="20" t="s">
         <v>2656</v>
       </c>
-      <c r="D261" s="20">
-        <v>263</v>
+      <c r="D261" s="38">
+        <v>264</v>
       </c>
       <c r="E261" s="20" t="s">
         <v>1161</v>
@@ -17543,8 +17545,8 @@
       <c r="C262" s="20" t="s">
         <v>2657</v>
       </c>
-      <c r="D262" s="20">
-        <v>264</v>
+      <c r="D262" s="38">
+        <v>265</v>
       </c>
       <c r="E262" s="20" t="s">
         <v>1166</v>
@@ -17569,8 +17571,8 @@
       <c r="C263" s="20" t="s">
         <v>2663</v>
       </c>
-      <c r="D263" s="20">
-        <v>265</v>
+      <c r="D263" s="38">
+        <v>266</v>
       </c>
       <c r="E263" s="20" t="s">
         <v>1170</v>
@@ -17595,8 +17597,8 @@
       <c r="C264" s="20" t="s">
         <v>2656</v>
       </c>
-      <c r="D264" s="20">
-        <v>266</v>
+      <c r="D264" s="38">
+        <v>267</v>
       </c>
       <c r="E264" s="20" t="s">
         <v>1175</v>
@@ -17618,8 +17620,8 @@
       <c r="C265" s="20" t="s">
         <v>2658</v>
       </c>
-      <c r="D265" s="20">
-        <v>267</v>
+      <c r="D265" s="38">
+        <v>268</v>
       </c>
       <c r="E265" s="20" t="s">
         <v>153</v>
@@ -17641,8 +17643,8 @@
       <c r="C266" s="20" t="s">
         <v>2654</v>
       </c>
-      <c r="D266" s="20">
-        <v>268</v>
+      <c r="D266" s="38">
+        <v>269</v>
       </c>
       <c r="E266" s="20" t="s">
         <v>1182</v>
@@ -17667,8 +17669,8 @@
       <c r="C267" s="20" t="s">
         <v>2669</v>
       </c>
-      <c r="D267" s="20">
-        <v>269</v>
+      <c r="D267" s="38">
+        <v>270</v>
       </c>
       <c r="E267" s="20" t="s">
         <v>1032</v>
@@ -17693,8 +17695,8 @@
       <c r="C268" s="20" t="s">
         <v>2654</v>
       </c>
-      <c r="D268" s="20">
-        <v>270</v>
+      <c r="D268" s="38">
+        <v>271</v>
       </c>
       <c r="E268" s="20" t="s">
         <v>1191</v>
@@ -17719,8 +17721,8 @@
       <c r="C269" s="20" t="s">
         <v>2652</v>
       </c>
-      <c r="D269" s="20">
-        <v>271</v>
+      <c r="D269" s="38">
+        <v>272</v>
       </c>
       <c r="E269" s="20" t="s">
         <v>46</v>
@@ -17745,8 +17747,8 @@
       <c r="C270" s="20" t="s">
         <v>2665</v>
       </c>
-      <c r="D270" s="20">
-        <v>272</v>
+      <c r="D270" s="38">
+        <v>273</v>
       </c>
       <c r="E270" s="20" t="s">
         <v>46</v>
@@ -17771,8 +17773,8 @@
       <c r="C271" s="20" t="s">
         <v>2667</v>
       </c>
-      <c r="D271" s="20">
-        <v>273</v>
+      <c r="D271" s="38">
+        <v>274</v>
       </c>
       <c r="E271" s="20" t="s">
         <v>1203</v>
@@ -17797,8 +17799,8 @@
       <c r="C272" s="20" t="s">
         <v>2657</v>
       </c>
-      <c r="D272" s="20">
-        <v>274</v>
+      <c r="D272" s="38">
+        <v>275</v>
       </c>
       <c r="E272" s="20" t="s">
         <v>1207</v>
@@ -17823,8 +17825,8 @@
       <c r="C273" s="20" t="s">
         <v>2654</v>
       </c>
-      <c r="D273" s="20">
-        <v>275</v>
+      <c r="D273" s="38">
+        <v>276</v>
       </c>
       <c r="E273" s="20" t="s">
         <v>1212</v>
@@ -17849,8 +17851,8 @@
       <c r="C274" s="20" t="s">
         <v>2651</v>
       </c>
-      <c r="D274" s="20">
-        <v>276</v>
+      <c r="D274" s="38">
+        <v>277</v>
       </c>
       <c r="E274" s="20" t="s">
         <v>1216</v>
@@ -17869,8 +17871,8 @@
       <c r="C275" s="20" t="s">
         <v>2668</v>
       </c>
-      <c r="D275" s="20">
-        <v>277</v>
+      <c r="D275" s="38">
+        <v>278</v>
       </c>
       <c r="E275" s="20" t="s">
         <v>1219</v>
@@ -17895,8 +17897,8 @@
       <c r="C276" s="20" t="s">
         <v>2658</v>
       </c>
-      <c r="D276" s="20">
-        <v>278</v>
+      <c r="D276" s="38">
+        <v>279</v>
       </c>
       <c r="E276" s="20" t="s">
         <v>46</v>
@@ -17921,8 +17923,8 @@
       <c r="C277" s="20" t="s">
         <v>2660</v>
       </c>
-      <c r="D277" s="20">
-        <v>279</v>
+      <c r="D277" s="38">
+        <v>280</v>
       </c>
       <c r="E277" s="20" t="s">
         <v>1226</v>
@@ -17947,8 +17949,8 @@
       <c r="C278" s="20" t="s">
         <v>2654</v>
       </c>
-      <c r="D278" s="20">
-        <v>280</v>
+      <c r="D278" s="38">
+        <v>281</v>
       </c>
       <c r="E278" s="20" t="s">
         <v>1230</v>
@@ -17973,8 +17975,8 @@
       <c r="C279" s="20" t="s">
         <v>2656</v>
       </c>
-      <c r="D279" s="20">
-        <v>281</v>
+      <c r="D279" s="38">
+        <v>282</v>
       </c>
       <c r="E279" s="20" t="s">
         <v>1233</v>
@@ -17999,8 +18001,8 @@
       <c r="C280" s="20" t="s">
         <v>2654</v>
       </c>
-      <c r="D280" s="20">
-        <v>282</v>
+      <c r="D280" s="38">
+        <v>283</v>
       </c>
       <c r="E280" s="20" t="s">
         <v>1236</v>
@@ -18025,8 +18027,8 @@
       <c r="C281" s="20" t="s">
         <v>2653</v>
       </c>
-      <c r="D281" s="20">
-        <v>283</v>
+      <c r="D281" s="38">
+        <v>284</v>
       </c>
       <c r="E281" s="20" t="s">
         <v>1239</v>
@@ -18051,8 +18053,8 @@
       <c r="C282" s="20" t="s">
         <v>2660</v>
       </c>
-      <c r="D282" s="20">
-        <v>284</v>
+      <c r="D282" s="38">
+        <v>285</v>
       </c>
       <c r="E282" s="20" t="s">
         <v>1243</v>
@@ -18077,8 +18079,8 @@
       <c r="C283" s="20" t="s">
         <v>2658</v>
       </c>
-      <c r="D283" s="20">
-        <v>285</v>
+      <c r="D283" s="38">
+        <v>286</v>
       </c>
       <c r="E283" s="20" t="s">
         <v>1248</v>
@@ -18103,8 +18105,8 @@
       <c r="C284" s="20" t="s">
         <v>2662</v>
       </c>
-      <c r="D284" s="20">
-        <v>286</v>
+      <c r="D284" s="38">
+        <v>287</v>
       </c>
       <c r="E284" s="20" t="s">
         <v>1252</v>
@@ -18126,8 +18128,8 @@
       <c r="C285" s="20" t="s">
         <v>2660</v>
       </c>
-      <c r="D285" s="20">
-        <v>287</v>
+      <c r="D285" s="38">
+        <v>288</v>
       </c>
       <c r="E285" s="20" t="s">
         <v>1254</v>
@@ -18149,8 +18151,8 @@
       <c r="C286" s="20" t="s">
         <v>2662</v>
       </c>
-      <c r="D286" s="20">
-        <v>288</v>
+      <c r="D286" s="38">
+        <v>289</v>
       </c>
       <c r="E286" s="20" t="s">
         <v>1259</v>
@@ -18175,8 +18177,8 @@
       <c r="C287" s="20" t="s">
         <v>2668</v>
       </c>
-      <c r="D287" s="20">
-        <v>289</v>
+      <c r="D287" s="38">
+        <v>290</v>
       </c>
       <c r="E287" s="20" t="s">
         <v>1264</v>
@@ -18201,8 +18203,8 @@
       <c r="C288" s="20" t="s">
         <v>2655</v>
       </c>
-      <c r="D288" s="20">
-        <v>290</v>
+      <c r="D288" s="38">
+        <v>291</v>
       </c>
       <c r="E288" s="20" t="s">
         <v>1269</v>
@@ -18224,8 +18226,8 @@
       <c r="C289" s="20" t="s">
         <v>2668</v>
       </c>
-      <c r="D289" s="20">
-        <v>291</v>
+      <c r="D289" s="38">
+        <v>292</v>
       </c>
       <c r="E289" s="20" t="s">
         <v>80</v>
@@ -18251,8 +18253,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M374"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" topLeftCell="A227" workbookViewId="0">
+      <selection activeCell="D230" sqref="D230"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18311,8 +18313,8 @@
       <c r="C2" s="11" t="s">
         <v>2650</v>
       </c>
-      <c r="D2" s="11">
-        <v>1</v>
+      <c r="D2" s="38">
+        <v>2</v>
       </c>
       <c r="E2" s="11" t="s">
         <v>1277</v>
@@ -18345,8 +18347,8 @@
       <c r="C3" s="11" t="s">
         <v>2651</v>
       </c>
-      <c r="D3" s="11">
-        <v>2</v>
+      <c r="D3" s="38">
+        <v>3</v>
       </c>
       <c r="E3" s="11" t="s">
         <v>1285</v>
@@ -18376,8 +18378,8 @@
       <c r="C4" s="11" t="s">
         <v>2652</v>
       </c>
-      <c r="D4" s="11">
-        <v>3</v>
+      <c r="D4" s="38">
+        <v>4</v>
       </c>
       <c r="E4" s="13">
         <v>40817</v>
@@ -18410,8 +18412,8 @@
       <c r="C5" s="11" t="s">
         <v>2653</v>
       </c>
-      <c r="D5" s="11">
-        <v>4</v>
+      <c r="D5" s="38">
+        <v>5</v>
       </c>
       <c r="E5" s="11" t="s">
         <v>1298</v>
@@ -18444,8 +18446,8 @@
       <c r="C6" s="11" t="s">
         <v>2654</v>
       </c>
-      <c r="D6" s="11">
-        <v>5</v>
+      <c r="D6" s="38">
+        <v>6</v>
       </c>
       <c r="E6" s="11" t="s">
         <v>1304</v>
@@ -18478,8 +18480,8 @@
       <c r="C7" s="11" t="s">
         <v>2655</v>
       </c>
-      <c r="D7" s="11">
-        <v>6</v>
+      <c r="D7" s="38">
+        <v>7</v>
       </c>
       <c r="E7" s="11" t="s">
         <v>1312</v>
@@ -18512,8 +18514,8 @@
       <c r="C8" s="11" t="s">
         <v>2656</v>
       </c>
-      <c r="D8" s="11">
-        <v>7</v>
+      <c r="D8" s="38">
+        <v>8</v>
       </c>
       <c r="E8" s="11" t="s">
         <v>1320</v>
@@ -18546,8 +18548,8 @@
       <c r="C9" s="11" t="s">
         <v>2657</v>
       </c>
-      <c r="D9" s="11">
-        <v>8</v>
+      <c r="D9" s="38">
+        <v>9</v>
       </c>
       <c r="E9" s="11" t="s">
         <v>1325</v>
@@ -18571,8 +18573,8 @@
       <c r="C10" s="11" t="s">
         <v>2656</v>
       </c>
-      <c r="D10" s="11">
-        <v>9</v>
+      <c r="D10" s="38">
+        <v>10</v>
       </c>
       <c r="E10" s="11" t="s">
         <v>1328</v>
@@ -18599,8 +18601,8 @@
       <c r="C11" s="11" t="s">
         <v>2655</v>
       </c>
-      <c r="D11" s="11">
-        <v>10</v>
+      <c r="D11" s="38">
+        <v>11</v>
       </c>
       <c r="E11" s="11" t="s">
         <v>1334</v>
@@ -18630,8 +18632,8 @@
       <c r="C12" s="11" t="s">
         <v>2658</v>
       </c>
-      <c r="D12" s="11">
-        <v>11</v>
+      <c r="D12" s="38">
+        <v>12</v>
       </c>
       <c r="E12" s="11" t="s">
         <v>1340</v>
@@ -18664,8 +18666,8 @@
       <c r="C13" s="11" t="s">
         <v>2650</v>
       </c>
-      <c r="D13" s="11">
-        <v>12</v>
+      <c r="D13" s="38">
+        <v>13</v>
       </c>
       <c r="E13" s="11" t="s">
         <v>1347</v>
@@ -18695,8 +18697,8 @@
       <c r="C14" s="11" t="s">
         <v>2652</v>
       </c>
-      <c r="D14" s="11">
-        <v>13</v>
+      <c r="D14" s="38">
+        <v>14</v>
       </c>
       <c r="E14" s="11" t="s">
         <v>1354</v>
@@ -18723,8 +18725,8 @@
       <c r="C15" s="11" t="s">
         <v>2657</v>
       </c>
-      <c r="D15" s="11">
-        <v>14</v>
+      <c r="D15" s="38">
+        <v>15</v>
       </c>
       <c r="E15" s="11" t="s">
         <v>1360</v>
@@ -18757,8 +18759,8 @@
       <c r="C16" s="11" t="s">
         <v>2651</v>
       </c>
-      <c r="D16" s="11">
-        <v>15</v>
+      <c r="D16" s="38">
+        <v>16</v>
       </c>
       <c r="E16" s="11" t="s">
         <v>1367</v>
@@ -18791,8 +18793,8 @@
       <c r="C17" s="11" t="s">
         <v>2659</v>
       </c>
-      <c r="D17" s="11">
-        <v>16</v>
+      <c r="D17" s="38">
+        <v>17</v>
       </c>
       <c r="E17" s="11" t="s">
         <v>1375</v>
@@ -18822,8 +18824,8 @@
       <c r="C18" s="11" t="s">
         <v>2651</v>
       </c>
-      <c r="D18" s="11">
-        <v>17</v>
+      <c r="D18" s="38">
+        <v>18</v>
       </c>
       <c r="E18" s="11" t="s">
         <v>1382</v>
@@ -18850,8 +18852,8 @@
       <c r="C19" s="11" t="s">
         <v>2655</v>
       </c>
-      <c r="D19" s="11">
-        <v>18</v>
+      <c r="D19" s="38">
+        <v>19</v>
       </c>
       <c r="E19" s="11" t="s">
         <v>1387</v>
@@ -18884,8 +18886,8 @@
       <c r="C20" s="11" t="s">
         <v>2656</v>
       </c>
-      <c r="D20" s="11">
-        <v>19</v>
+      <c r="D20" s="38">
+        <v>20</v>
       </c>
       <c r="E20" s="11" t="s">
         <v>1387</v>
@@ -18918,8 +18920,8 @@
       <c r="C21" s="11" t="s">
         <v>2660</v>
       </c>
-      <c r="D21" s="11">
-        <v>20</v>
+      <c r="D21" s="38">
+        <v>21</v>
       </c>
       <c r="E21" s="11" t="s">
         <v>1398</v>
@@ -18940,8 +18942,8 @@
       <c r="C22" s="11" t="s">
         <v>2661</v>
       </c>
-      <c r="D22" s="11">
-        <v>21</v>
+      <c r="D22" s="38">
+        <v>22</v>
       </c>
       <c r="E22" s="11" t="s">
         <v>1402</v>
@@ -18974,8 +18976,8 @@
       <c r="C23" s="11" t="s">
         <v>2662</v>
       </c>
-      <c r="D23" s="11">
-        <v>22</v>
+      <c r="D23" s="38">
+        <v>23</v>
       </c>
       <c r="E23" s="11" t="s">
         <v>1410</v>
@@ -19008,8 +19010,8 @@
       <c r="C24" s="11" t="s">
         <v>2663</v>
       </c>
-      <c r="D24" s="11">
-        <v>23</v>
+      <c r="D24" s="38">
+        <v>24</v>
       </c>
       <c r="E24" s="11" t="s">
         <v>1418</v>
@@ -19033,8 +19035,8 @@
       <c r="C25" s="11" t="s">
         <v>2664</v>
       </c>
-      <c r="D25" s="11">
-        <v>24</v>
+      <c r="D25" s="38">
+        <v>25</v>
       </c>
       <c r="E25" s="11" t="s">
         <v>1422</v>
@@ -19058,8 +19060,8 @@
       <c r="C26" s="11" t="s">
         <v>2656</v>
       </c>
-      <c r="D26" s="11">
-        <v>25</v>
+      <c r="D26" s="38">
+        <v>26</v>
       </c>
       <c r="E26" s="11" t="s">
         <v>1425</v>
@@ -19086,8 +19088,8 @@
       <c r="C27" s="11" t="s">
         <v>2659</v>
       </c>
-      <c r="D27" s="11">
-        <v>26</v>
+      <c r="D27" s="38">
+        <v>27</v>
       </c>
       <c r="E27" s="11" t="s">
         <v>1431</v>
@@ -19120,8 +19122,8 @@
       <c r="C28" s="11" t="s">
         <v>2665</v>
       </c>
-      <c r="D28" s="11">
-        <v>27</v>
+      <c r="D28" s="38">
+        <v>28</v>
       </c>
       <c r="E28" s="11" t="s">
         <v>1437</v>
@@ -19145,8 +19147,8 @@
       <c r="C29" s="11" t="s">
         <v>2661</v>
       </c>
-      <c r="D29" s="11">
-        <v>28</v>
+      <c r="D29" s="38">
+        <v>29</v>
       </c>
       <c r="E29" s="11" t="s">
         <v>1443</v>
@@ -19173,8 +19175,8 @@
       <c r="C30" s="11" t="s">
         <v>2660</v>
       </c>
-      <c r="D30" s="11">
-        <v>29</v>
+      <c r="D30" s="38">
+        <v>30</v>
       </c>
       <c r="E30" s="11" t="s">
         <v>188</v>
@@ -19207,8 +19209,8 @@
       <c r="C31" s="11" t="s">
         <v>2653</v>
       </c>
-      <c r="D31" s="11">
-        <v>30</v>
+      <c r="D31" s="38">
+        <v>31</v>
       </c>
       <c r="E31" s="11" t="s">
         <v>1454</v>
@@ -19235,8 +19237,8 @@
       <c r="C32" s="11" t="s">
         <v>2662</v>
       </c>
-      <c r="D32" s="11">
-        <v>31</v>
+      <c r="D32" s="38">
+        <v>32</v>
       </c>
       <c r="E32" s="11" t="s">
         <v>1459</v>
@@ -19269,8 +19271,8 @@
       <c r="C33" s="11" t="s">
         <v>2660</v>
       </c>
-      <c r="D33" s="11">
-        <v>32</v>
+      <c r="D33" s="38">
+        <v>33</v>
       </c>
       <c r="E33" s="11" t="s">
         <v>1467</v>
@@ -19300,8 +19302,8 @@
       <c r="C34" s="11" t="s">
         <v>2666</v>
       </c>
-      <c r="D34" s="11">
-        <v>33</v>
+      <c r="D34" s="38">
+        <v>34</v>
       </c>
       <c r="E34" s="11" t="s">
         <v>1469</v>
@@ -19334,8 +19336,8 @@
       <c r="C35" s="11" t="s">
         <v>2661</v>
       </c>
-      <c r="D35" s="11">
-        <v>34</v>
+      <c r="D35" s="38">
+        <v>35</v>
       </c>
       <c r="E35" s="11" t="s">
         <v>1478</v>
@@ -19368,8 +19370,8 @@
       <c r="C36" s="11" t="s">
         <v>2664</v>
       </c>
-      <c r="D36" s="11">
-        <v>35</v>
+      <c r="D36" s="38">
+        <v>36</v>
       </c>
       <c r="E36" s="11" t="s">
         <v>1478</v>
@@ -19402,8 +19404,8 @@
       <c r="C37" s="11" t="s">
         <v>2656</v>
       </c>
-      <c r="D37" s="11">
-        <v>36</v>
+      <c r="D37" s="38">
+        <v>37</v>
       </c>
       <c r="E37" s="11" t="s">
         <v>1491</v>
@@ -19436,8 +19438,8 @@
       <c r="C38" s="11" t="s">
         <v>2662</v>
       </c>
-      <c r="D38" s="11">
-        <v>37</v>
+      <c r="D38" s="38">
+        <v>38</v>
       </c>
       <c r="E38" s="11" t="s">
         <v>1498</v>
@@ -19467,8 +19469,8 @@
       <c r="C39" s="11" t="s">
         <v>2656</v>
       </c>
-      <c r="D39" s="11">
-        <v>38</v>
+      <c r="D39" s="38">
+        <v>39</v>
       </c>
       <c r="E39" s="11" t="s">
         <v>1504</v>
@@ -19501,8 +19503,8 @@
       <c r="C40" s="11" t="s">
         <v>2656</v>
       </c>
-      <c r="D40" s="11">
-        <v>39</v>
+      <c r="D40" s="38">
+        <v>40</v>
       </c>
       <c r="E40" s="11" t="s">
         <v>1508</v>
@@ -19532,8 +19534,8 @@
       <c r="C41" s="11" t="s">
         <v>2667</v>
       </c>
-      <c r="D41" s="11">
-        <v>40</v>
+      <c r="D41" s="38">
+        <v>41</v>
       </c>
       <c r="E41" s="11" t="s">
         <v>1514</v>
@@ -19566,8 +19568,8 @@
       <c r="C42" s="11" t="s">
         <v>2661</v>
       </c>
-      <c r="D42" s="11">
-        <v>41</v>
+      <c r="D42" s="38">
+        <v>42</v>
       </c>
       <c r="E42" s="11" t="s">
         <v>1522</v>
@@ -19600,8 +19602,8 @@
       <c r="C43" s="11" t="s">
         <v>2653</v>
       </c>
-      <c r="D43" s="11">
-        <v>42</v>
+      <c r="D43" s="38">
+        <v>43</v>
       </c>
       <c r="E43" s="11" t="s">
         <v>1528</v>
@@ -19631,8 +19633,8 @@
       <c r="C44" s="11" t="s">
         <v>2650</v>
       </c>
-      <c r="D44" s="11">
-        <v>43</v>
+      <c r="D44" s="38">
+        <v>44</v>
       </c>
       <c r="E44" s="11" t="s">
         <v>1535</v>
@@ -19662,8 +19664,8 @@
       <c r="C45" s="11" t="s">
         <v>2655</v>
       </c>
-      <c r="D45" s="11">
-        <v>44</v>
+      <c r="D45" s="38">
+        <v>45</v>
       </c>
       <c r="E45" s="11" t="s">
         <v>1542</v>
@@ -19696,8 +19698,8 @@
       <c r="C46" s="11" t="s">
         <v>2661</v>
       </c>
-      <c r="D46" s="11">
-        <v>45</v>
+      <c r="D46" s="38">
+        <v>46</v>
       </c>
       <c r="E46" s="11" t="s">
         <v>1550</v>
@@ -19730,8 +19732,8 @@
       <c r="C47" s="11" t="s">
         <v>2664</v>
       </c>
-      <c r="D47" s="11">
-        <v>46</v>
+      <c r="D47" s="38">
+        <v>47</v>
       </c>
       <c r="E47" s="11" t="s">
         <v>1555</v>
@@ -19752,8 +19754,8 @@
       <c r="C48" s="11" t="s">
         <v>2661</v>
       </c>
-      <c r="D48" s="11">
-        <v>47</v>
+      <c r="D48" s="38">
+        <v>48</v>
       </c>
       <c r="E48" s="11" t="s">
         <v>1558</v>
@@ -19786,8 +19788,8 @@
       <c r="C49" s="11" t="s">
         <v>2661</v>
       </c>
-      <c r="D49" s="11">
-        <v>48</v>
+      <c r="D49" s="38">
+        <v>49</v>
       </c>
       <c r="E49" s="11" t="s">
         <v>1566</v>
@@ -19820,8 +19822,8 @@
       <c r="C50" s="11" t="s">
         <v>2667</v>
       </c>
-      <c r="D50" s="11">
-        <v>49</v>
+      <c r="D50" s="38">
+        <v>50</v>
       </c>
       <c r="E50" s="11" t="s">
         <v>1573</v>
@@ -19854,8 +19856,8 @@
       <c r="C51" s="11" t="s">
         <v>2662</v>
       </c>
-      <c r="D51" s="11">
-        <v>50</v>
+      <c r="D51" s="38">
+        <v>51</v>
       </c>
       <c r="E51" s="11" t="s">
         <v>1580</v>
@@ -19888,8 +19890,8 @@
       <c r="C52" s="11" t="s">
         <v>2660</v>
       </c>
-      <c r="D52" s="11">
-        <v>51</v>
+      <c r="D52" s="38">
+        <v>52</v>
       </c>
       <c r="E52" s="11" t="s">
         <v>1588</v>
@@ -19919,8 +19921,8 @@
       <c r="C53" s="11" t="s">
         <v>2666</v>
       </c>
-      <c r="D53" s="11">
-        <v>52</v>
+      <c r="D53" s="38">
+        <v>53</v>
       </c>
       <c r="E53" s="11" t="s">
         <v>1595</v>
@@ -19944,8 +19946,8 @@
       <c r="C54" s="11" t="s">
         <v>2659</v>
       </c>
-      <c r="D54" s="11">
-        <v>53</v>
+      <c r="D54" s="38">
+        <v>54</v>
       </c>
       <c r="E54" s="11" t="s">
         <v>1599</v>
@@ -19969,8 +19971,8 @@
       <c r="C55" s="11" t="s">
         <v>2659</v>
       </c>
-      <c r="D55" s="11">
-        <v>54</v>
+      <c r="D55" s="38">
+        <v>55</v>
       </c>
       <c r="E55" s="11" t="s">
         <v>1601</v>
@@ -20003,8 +20005,8 @@
       <c r="C56" s="11" t="s">
         <v>2668</v>
       </c>
-      <c r="D56" s="11">
-        <v>55</v>
+      <c r="D56" s="38">
+        <v>56</v>
       </c>
       <c r="E56" s="11" t="s">
         <v>1609</v>
@@ -20037,8 +20039,8 @@
       <c r="C57" s="11" t="s">
         <v>2661</v>
       </c>
-      <c r="D57" s="11">
-        <v>56</v>
+      <c r="D57" s="38">
+        <v>57</v>
       </c>
       <c r="E57" s="11" t="s">
         <v>1617</v>
@@ -20071,8 +20073,8 @@
       <c r="C58" s="11" t="s">
         <v>2659</v>
       </c>
-      <c r="D58" s="11">
-        <v>57</v>
+      <c r="D58" s="38">
+        <v>58</v>
       </c>
       <c r="E58" s="11" t="s">
         <v>52</v>
@@ -20093,8 +20095,8 @@
       <c r="C59" s="11" t="s">
         <v>2666</v>
       </c>
-      <c r="D59" s="11">
-        <v>58</v>
+      <c r="D59" s="38">
+        <v>59</v>
       </c>
       <c r="E59" s="11" t="s">
         <v>52</v>
@@ -20127,8 +20129,8 @@
       <c r="C60" s="11" t="s">
         <v>2657</v>
       </c>
-      <c r="D60" s="11">
-        <v>59</v>
+      <c r="D60" s="38">
+        <v>60</v>
       </c>
       <c r="E60" s="11" t="s">
         <v>1634</v>
@@ -20155,8 +20157,8 @@
       <c r="C61" s="11" t="s">
         <v>2665</v>
       </c>
-      <c r="D61" s="11">
-        <v>60</v>
+      <c r="D61" s="38">
+        <v>61</v>
       </c>
       <c r="E61" s="11" t="s">
         <v>1640</v>
@@ -20189,8 +20191,8 @@
       <c r="C62" s="11" t="s">
         <v>2662</v>
       </c>
-      <c r="D62" s="11">
-        <v>61</v>
+      <c r="D62" s="38">
+        <v>62</v>
       </c>
       <c r="E62" s="11" t="s">
         <v>1647</v>
@@ -20223,8 +20225,8 @@
       <c r="C63" s="11" t="s">
         <v>2669</v>
       </c>
-      <c r="D63" s="11">
-        <v>62</v>
+      <c r="D63" s="38">
+        <v>63</v>
       </c>
       <c r="E63" s="11" t="s">
         <v>1652</v>
@@ -20257,8 +20259,8 @@
       <c r="C64" s="11" t="s">
         <v>2654</v>
       </c>
-      <c r="D64" s="11">
-        <v>63</v>
+      <c r="D64" s="38">
+        <v>64</v>
       </c>
       <c r="E64" s="11" t="s">
         <v>1660</v>
@@ -20291,8 +20293,8 @@
       <c r="C65" s="11" t="s">
         <v>2659</v>
       </c>
-      <c r="D65" s="11">
-        <v>64</v>
+      <c r="D65" s="38">
+        <v>65</v>
       </c>
       <c r="E65" s="11" t="s">
         <v>1667</v>
@@ -20322,8 +20324,8 @@
       <c r="C66" s="11" t="s">
         <v>2668</v>
       </c>
-      <c r="D66" s="11">
-        <v>65</v>
+      <c r="D66" s="38">
+        <v>66</v>
       </c>
       <c r="E66" s="11" t="s">
         <v>1673</v>
@@ -20356,8 +20358,8 @@
       <c r="C67" s="11" t="s">
         <v>2669</v>
       </c>
-      <c r="D67" s="11">
-        <v>66</v>
+      <c r="D67" s="38">
+        <v>67</v>
       </c>
       <c r="E67" s="11" t="s">
         <v>1680</v>
@@ -20387,8 +20389,8 @@
       <c r="C68" s="11" t="s">
         <v>2661</v>
       </c>
-      <c r="D68" s="11">
-        <v>67</v>
+      <c r="D68" s="38">
+        <v>68</v>
       </c>
       <c r="E68" s="11" t="s">
         <v>1680</v>
@@ -20421,8 +20423,8 @@
       <c r="C69" s="11" t="s">
         <v>2656</v>
       </c>
-      <c r="D69" s="11">
-        <v>68</v>
+      <c r="D69" s="38">
+        <v>69</v>
       </c>
       <c r="E69" s="11" t="s">
         <v>46</v>
@@ -20455,8 +20457,8 @@
       <c r="C70" s="11" t="s">
         <v>2660</v>
       </c>
-      <c r="D70" s="11">
-        <v>69</v>
+      <c r="D70" s="38">
+        <v>70</v>
       </c>
       <c r="E70" s="11" t="s">
         <v>46</v>
@@ -20489,8 +20491,8 @@
       <c r="C71" s="11" t="s">
         <v>2658</v>
       </c>
-      <c r="D71" s="11">
-        <v>70</v>
+      <c r="D71" s="38">
+        <v>71</v>
       </c>
       <c r="E71" s="11" t="s">
         <v>46</v>
@@ -20514,8 +20516,8 @@
       <c r="C72" s="11" t="s">
         <v>2665</v>
       </c>
-      <c r="D72" s="11">
-        <v>71</v>
+      <c r="D72" s="38">
+        <v>72</v>
       </c>
       <c r="E72" s="11" t="s">
         <v>46</v>
@@ -20548,8 +20550,8 @@
       <c r="C73" s="11" t="s">
         <v>2658</v>
       </c>
-      <c r="D73" s="11">
-        <v>72</v>
+      <c r="D73" s="38">
+        <v>73</v>
       </c>
       <c r="E73" s="11" t="s">
         <v>46</v>
@@ -20582,8 +20584,8 @@
       <c r="C74" s="11" t="s">
         <v>2669</v>
       </c>
-      <c r="D74" s="11">
-        <v>73</v>
+      <c r="D74" s="38">
+        <v>74</v>
       </c>
       <c r="E74" s="11" t="s">
         <v>431</v>
@@ -20610,8 +20612,8 @@
       <c r="C75" s="11" t="s">
         <v>2665</v>
       </c>
-      <c r="D75" s="11">
-        <v>74</v>
+      <c r="D75" s="38">
+        <v>75</v>
       </c>
       <c r="E75" s="11" t="s">
         <v>1725</v>
@@ -20635,8 +20637,8 @@
       <c r="C76" s="11" t="s">
         <v>2659</v>
       </c>
-      <c r="D76" s="11">
-        <v>75</v>
+      <c r="D76" s="38">
+        <v>76</v>
       </c>
       <c r="E76" s="11" t="s">
         <v>1729</v>
@@ -20666,8 +20668,8 @@
       <c r="C77" s="11" t="s">
         <v>2654</v>
       </c>
-      <c r="D77" s="11">
-        <v>76</v>
+      <c r="D77" s="38">
+        <v>77</v>
       </c>
       <c r="E77" s="11" t="s">
         <v>1736</v>
@@ -20688,8 +20690,8 @@
       <c r="C78" s="11" t="s">
         <v>2666</v>
       </c>
-      <c r="D78" s="11">
-        <v>77</v>
+      <c r="D78" s="38">
+        <v>78</v>
       </c>
       <c r="E78" s="11" t="s">
         <v>1739</v>
@@ -20719,8 +20721,8 @@
       <c r="C79" s="11" t="s">
         <v>2659</v>
       </c>
-      <c r="D79" s="11">
-        <v>78</v>
+      <c r="D79" s="38">
+        <v>79</v>
       </c>
       <c r="E79" s="11" t="s">
         <v>1745</v>
@@ -20753,8 +20755,8 @@
       <c r="C80" s="11" t="s">
         <v>2663</v>
       </c>
-      <c r="D80" s="11">
-        <v>79</v>
+      <c r="D80" s="38">
+        <v>80</v>
       </c>
       <c r="E80" s="11" t="s">
         <v>1751</v>
@@ -20778,8 +20780,8 @@
       <c r="C81" s="11" t="s">
         <v>2650</v>
       </c>
-      <c r="D81" s="11">
-        <v>80</v>
+      <c r="D81" s="38">
+        <v>81</v>
       </c>
       <c r="E81" s="11" t="s">
         <v>1756</v>
@@ -20809,8 +20811,8 @@
       <c r="C82" s="11" t="s">
         <v>2658</v>
       </c>
-      <c r="D82" s="11">
-        <v>81</v>
+      <c r="D82" s="38">
+        <v>82</v>
       </c>
       <c r="E82" s="11" t="s">
         <v>1762</v>
@@ -20843,8 +20845,8 @@
       <c r="C83" s="11" t="s">
         <v>2651</v>
       </c>
-      <c r="D83" s="11">
-        <v>82</v>
+      <c r="D83" s="38">
+        <v>83</v>
       </c>
       <c r="E83" s="11" t="s">
         <v>1770</v>
@@ -20874,8 +20876,8 @@
       <c r="C84" s="11" t="s">
         <v>2665</v>
       </c>
-      <c r="D84" s="11">
-        <v>83</v>
+      <c r="D84" s="38">
+        <v>84</v>
       </c>
       <c r="E84" s="11" t="s">
         <v>1773</v>
@@ -20905,8 +20907,8 @@
       <c r="C85" s="11" t="s">
         <v>2662</v>
       </c>
-      <c r="D85" s="11">
-        <v>84</v>
+      <c r="D85" s="38">
+        <v>85</v>
       </c>
       <c r="E85" s="11" t="s">
         <v>1780</v>
@@ -20930,8 +20932,8 @@
       <c r="C86" s="11" t="s">
         <v>2658</v>
       </c>
-      <c r="D86" s="11">
-        <v>85</v>
+      <c r="D86" s="38">
+        <v>86</v>
       </c>
       <c r="E86" s="11" t="s">
         <v>1783</v>
@@ -20958,8 +20960,8 @@
       <c r="C87" s="11" t="s">
         <v>2654</v>
       </c>
-      <c r="D87" s="11">
-        <v>86</v>
+      <c r="D87" s="38">
+        <v>87</v>
       </c>
       <c r="E87" s="11" t="s">
         <v>1787</v>
@@ -20992,8 +20994,8 @@
       <c r="C88" s="11" t="s">
         <v>2653</v>
       </c>
-      <c r="D88" s="11">
-        <v>87</v>
+      <c r="D88" s="38">
+        <v>88</v>
       </c>
       <c r="E88" s="11" t="s">
         <v>1795</v>
@@ -21026,8 +21028,8 @@
       <c r="C89" s="11" t="s">
         <v>2667</v>
       </c>
-      <c r="D89" s="11">
-        <v>88</v>
+      <c r="D89" s="38">
+        <v>89</v>
       </c>
       <c r="E89" s="11" t="s">
         <v>1802</v>
@@ -21051,8 +21053,8 @@
       <c r="C90" s="11" t="s">
         <v>2665</v>
       </c>
-      <c r="D90" s="11">
-        <v>89</v>
+      <c r="D90" s="38">
+        <v>90</v>
       </c>
       <c r="E90" s="11" t="s">
         <v>1805</v>
@@ -21079,8 +21081,8 @@
       <c r="C91" s="11" t="s">
         <v>2653</v>
       </c>
-      <c r="D91" s="11">
-        <v>90</v>
+      <c r="D91" s="38">
+        <v>91</v>
       </c>
       <c r="E91" s="11" t="s">
         <v>1810</v>
@@ -21107,8 +21109,8 @@
       <c r="C92" s="11" t="s">
         <v>2662</v>
       </c>
-      <c r="D92" s="11">
-        <v>91</v>
+      <c r="D92" s="38">
+        <v>92</v>
       </c>
       <c r="E92" s="11" t="s">
         <v>1813</v>
@@ -21141,8 +21143,8 @@
       <c r="C93" s="11" t="s">
         <v>2664</v>
       </c>
-      <c r="D93" s="11">
-        <v>92</v>
+      <c r="D93" s="38">
+        <v>93</v>
       </c>
       <c r="E93" s="11" t="s">
         <v>1821</v>
@@ -21169,8 +21171,8 @@
       <c r="C94" s="11" t="s">
         <v>2657</v>
       </c>
-      <c r="D94" s="11">
-        <v>93</v>
+      <c r="D94" s="38">
+        <v>94</v>
       </c>
       <c r="E94" s="11" t="s">
         <v>1827</v>
@@ -21203,8 +21205,8 @@
       <c r="C95" s="11" t="s">
         <v>2658</v>
       </c>
-      <c r="D95" s="11">
-        <v>94</v>
+      <c r="D95" s="38">
+        <v>95</v>
       </c>
       <c r="E95" s="11" t="s">
         <v>1835</v>
@@ -21228,8 +21230,8 @@
       <c r="C96" s="11" t="s">
         <v>2656</v>
       </c>
-      <c r="D96" s="11">
-        <v>95</v>
+      <c r="D96" s="38">
+        <v>96</v>
       </c>
       <c r="E96" s="11" t="s">
         <v>1839</v>
@@ -21262,8 +21264,8 @@
       <c r="C97" s="11" t="s">
         <v>2652</v>
       </c>
-      <c r="D97" s="11">
-        <v>96</v>
+      <c r="D97" s="38">
+        <v>97</v>
       </c>
       <c r="E97" s="11" t="s">
         <v>1847</v>
@@ -21296,8 +21298,8 @@
       <c r="C98" s="11" t="s">
         <v>2653</v>
       </c>
-      <c r="D98" s="11">
-        <v>97</v>
+      <c r="D98" s="38">
+        <v>98</v>
       </c>
       <c r="E98" s="11" t="s">
         <v>1853</v>
@@ -21324,8 +21326,8 @@
       <c r="C99" s="11" t="s">
         <v>2650</v>
       </c>
-      <c r="D99" s="11">
-        <v>98</v>
+      <c r="D99" s="38">
+        <v>99</v>
       </c>
       <c r="E99" s="11" t="s">
         <v>1859</v>
@@ -21349,8 +21351,8 @@
       <c r="C100" s="11" t="s">
         <v>2656</v>
       </c>
-      <c r="D100" s="11">
-        <v>99</v>
+      <c r="D100" s="38">
+        <v>100</v>
       </c>
       <c r="E100" s="11" t="s">
         <v>1864</v>
@@ -21377,8 +21379,8 @@
       <c r="C101" s="11" t="s">
         <v>2664</v>
       </c>
-      <c r="D101" s="11">
-        <v>100</v>
+      <c r="D101" s="38">
+        <v>101</v>
       </c>
       <c r="E101" s="11" t="s">
         <v>1868</v>
@@ -21402,8 +21404,8 @@
       <c r="C102" s="11" t="s">
         <v>2660</v>
       </c>
-      <c r="D102" s="11">
-        <v>101</v>
+      <c r="D102" s="38">
+        <v>102</v>
       </c>
       <c r="E102" s="11" t="s">
         <v>1873</v>
@@ -21433,8 +21435,8 @@
       <c r="C103" s="11" t="s">
         <v>2652</v>
       </c>
-      <c r="D103" s="11">
-        <v>102</v>
+      <c r="D103" s="38">
+        <v>103</v>
       </c>
       <c r="E103" s="11" t="s">
         <v>1879</v>
@@ -21461,8 +21463,8 @@
       <c r="C104" s="11" t="s">
         <v>2668</v>
       </c>
-      <c r="D104" s="11">
-        <v>103</v>
+      <c r="D104" s="38">
+        <v>104</v>
       </c>
       <c r="E104" s="11" t="s">
         <v>1885</v>
@@ -21495,8 +21497,8 @@
       <c r="C105" s="11" t="s">
         <v>2667</v>
       </c>
-      <c r="D105" s="11">
-        <v>104</v>
+      <c r="D105" s="38">
+        <v>105</v>
       </c>
       <c r="E105" s="11" t="s">
         <v>1893</v>
@@ -21526,8 +21528,8 @@
       <c r="C106" s="11" t="s">
         <v>2668</v>
       </c>
-      <c r="D106" s="11">
-        <v>105</v>
+      <c r="D106" s="38">
+        <v>106</v>
       </c>
       <c r="E106" s="11" t="s">
         <v>1898</v>
@@ -21554,8 +21556,8 @@
       <c r="C107" s="11" t="s">
         <v>2656</v>
       </c>
-      <c r="D107" s="11">
-        <v>106</v>
+      <c r="D107" s="38">
+        <v>107</v>
       </c>
       <c r="E107" s="11" t="s">
         <v>1904</v>
@@ -21588,8 +21590,8 @@
       <c r="C108" s="11" t="s">
         <v>2650</v>
       </c>
-      <c r="D108" s="11">
-        <v>107</v>
+      <c r="D108" s="38">
+        <v>108</v>
       </c>
       <c r="E108" s="11" t="s">
         <v>1910</v>
@@ -21622,8 +21624,8 @@
       <c r="C109" s="11" t="s">
         <v>2657</v>
       </c>
-      <c r="D109" s="11">
-        <v>108</v>
+      <c r="D109" s="38">
+        <v>109</v>
       </c>
       <c r="E109" s="11" t="s">
         <v>1917</v>
@@ -21656,8 +21658,8 @@
       <c r="C110" s="11" t="s">
         <v>2656</v>
       </c>
-      <c r="D110" s="11">
-        <v>109</v>
+      <c r="D110" s="38">
+        <v>110</v>
       </c>
       <c r="E110" s="11" t="s">
         <v>1923</v>
@@ -21681,8 +21683,8 @@
       <c r="C111" s="11" t="s">
         <v>2665</v>
       </c>
-      <c r="D111" s="11">
-        <v>110</v>
+      <c r="D111" s="38">
+        <v>111</v>
       </c>
       <c r="E111" s="11" t="s">
         <v>1928</v>
@@ -21715,8 +21717,8 @@
       <c r="C112" s="11" t="s">
         <v>2657</v>
       </c>
-      <c r="D112" s="11">
-        <v>111</v>
+      <c r="D112" s="38">
+        <v>112</v>
       </c>
       <c r="E112" s="11" t="s">
         <v>1935</v>
@@ -21740,8 +21742,8 @@
       <c r="C113" s="11" t="s">
         <v>2655</v>
       </c>
-      <c r="D113" s="11">
-        <v>112</v>
+      <c r="D113" s="38">
+        <v>113</v>
       </c>
       <c r="E113" s="11" t="s">
         <v>1939</v>
@@ -21774,8 +21776,8 @@
       <c r="C114" s="11" t="s">
         <v>2654</v>
       </c>
-      <c r="D114" s="11">
-        <v>113</v>
+      <c r="D114" s="38">
+        <v>114</v>
       </c>
       <c r="E114" s="11" t="s">
         <v>1947</v>
@@ -21802,8 +21804,8 @@
       <c r="C115" s="11" t="s">
         <v>2656</v>
       </c>
-      <c r="D115" s="11">
-        <v>114</v>
+      <c r="D115" s="38">
+        <v>115</v>
       </c>
       <c r="E115" s="11" t="s">
         <v>1953</v>
@@ -21824,8 +21826,8 @@
       <c r="C116" s="11" t="s">
         <v>2661</v>
       </c>
-      <c r="D116" s="11">
-        <v>115</v>
+      <c r="D116" s="38">
+        <v>116</v>
       </c>
       <c r="E116" s="11" t="s">
         <v>1957</v>
@@ -21846,8 +21848,8 @@
       <c r="C117" s="11" t="s">
         <v>2655</v>
       </c>
-      <c r="D117" s="11">
-        <v>116</v>
+      <c r="D117" s="38">
+        <v>117</v>
       </c>
       <c r="E117" s="11" t="s">
         <v>1960</v>
@@ -21877,8 +21879,8 @@
       <c r="C118" s="11" t="s">
         <v>2656</v>
       </c>
-      <c r="D118" s="11">
-        <v>117</v>
+      <c r="D118" s="38">
+        <v>118</v>
       </c>
       <c r="E118" s="11" t="s">
         <v>1967</v>
@@ -21905,8 +21907,8 @@
       <c r="C119" s="11" t="s">
         <v>2662</v>
       </c>
-      <c r="D119" s="11">
-        <v>118</v>
+      <c r="D119" s="38">
+        <v>119</v>
       </c>
       <c r="E119" s="11" t="s">
         <v>1972</v>
@@ -21936,8 +21938,8 @@
       <c r="C120" s="11" t="s">
         <v>2665</v>
       </c>
-      <c r="D120" s="11">
-        <v>119</v>
+      <c r="D120" s="38">
+        <v>120</v>
       </c>
       <c r="E120" s="11" t="s">
         <v>1979</v>
@@ -21967,8 +21969,8 @@
       <c r="C121" s="11" t="s">
         <v>2652</v>
       </c>
-      <c r="D121" s="11">
-        <v>120</v>
+      <c r="D121" s="38">
+        <v>121</v>
       </c>
       <c r="E121" s="11" t="s">
         <v>1986</v>
@@ -21995,8 +21997,8 @@
       <c r="C122" s="11" t="s">
         <v>2650</v>
       </c>
-      <c r="D122" s="11">
-        <v>121</v>
+      <c r="D122" s="38">
+        <v>122</v>
       </c>
       <c r="E122" s="11" t="s">
         <v>1991</v>
@@ -22029,8 +22031,8 @@
       <c r="C123" s="11" t="s">
         <v>2659</v>
       </c>
-      <c r="D123" s="11">
-        <v>122</v>
+      <c r="D123" s="38">
+        <v>123</v>
       </c>
       <c r="E123" s="11" t="s">
         <v>1997</v>
@@ -22057,8 +22059,8 @@
       <c r="C124" s="11" t="s">
         <v>2665</v>
       </c>
-      <c r="D124" s="11">
-        <v>123</v>
+      <c r="D124" s="38">
+        <v>124</v>
       </c>
       <c r="E124" s="11" t="s">
         <v>2003</v>
@@ -22088,8 +22090,8 @@
       <c r="C125" s="11" t="s">
         <v>2664</v>
       </c>
-      <c r="D125" s="11">
-        <v>124</v>
+      <c r="D125" s="38">
+        <v>125</v>
       </c>
       <c r="E125" s="11" t="s">
         <v>2007</v>
@@ -22116,8 +22118,8 @@
       <c r="C126" s="11" t="s">
         <v>2658</v>
       </c>
-      <c r="D126" s="11">
-        <v>125</v>
+      <c r="D126" s="38">
+        <v>126</v>
       </c>
       <c r="E126" s="11" t="s">
         <v>2012</v>
@@ -22147,8 +22149,8 @@
       <c r="C127" s="11" t="s">
         <v>2650</v>
       </c>
-      <c r="D127" s="11">
-        <v>126</v>
+      <c r="D127" s="38">
+        <v>127</v>
       </c>
       <c r="E127" s="11" t="s">
         <v>2016</v>
@@ -22169,8 +22171,8 @@
       <c r="C128" s="11" t="s">
         <v>2657</v>
       </c>
-      <c r="D128" s="11">
-        <v>127</v>
+      <c r="D128" s="38">
+        <v>128</v>
       </c>
       <c r="E128" s="11" t="s">
         <v>2020</v>
@@ -22197,8 +22199,8 @@
       <c r="C129" s="11" t="s">
         <v>2660</v>
       </c>
-      <c r="D129" s="11">
-        <v>128</v>
+      <c r="D129" s="38">
+        <v>129</v>
       </c>
       <c r="E129" s="11" t="s">
         <v>2024</v>
@@ -22228,8 +22230,8 @@
       <c r="C130" s="11" t="s">
         <v>2650</v>
       </c>
-      <c r="D130" s="11">
-        <v>129</v>
+      <c r="D130" s="38">
+        <v>130</v>
       </c>
       <c r="E130" s="11" t="s">
         <v>2029</v>
@@ -22262,8 +22264,8 @@
       <c r="C131" s="11" t="s">
         <v>2660</v>
       </c>
-      <c r="D131" s="11">
-        <v>130</v>
+      <c r="D131" s="38">
+        <v>131</v>
       </c>
       <c r="E131" s="11" t="s">
         <v>2036</v>
@@ -22293,8 +22295,8 @@
       <c r="C132" s="11" t="s">
         <v>2664</v>
       </c>
-      <c r="D132" s="11">
-        <v>131</v>
+      <c r="D132" s="38">
+        <v>132</v>
       </c>
       <c r="E132" s="11" t="s">
         <v>2043</v>
@@ -22327,8 +22329,8 @@
       <c r="C133" s="11" t="s">
         <v>2656</v>
       </c>
-      <c r="D133" s="11">
-        <v>132</v>
+      <c r="D133" s="38">
+        <v>133</v>
       </c>
       <c r="E133" s="11" t="s">
         <v>2050</v>
@@ -22358,8 +22360,8 @@
       <c r="C134" s="11" t="s">
         <v>2657</v>
       </c>
-      <c r="D134" s="11">
-        <v>133</v>
+      <c r="D134" s="38">
+        <v>134</v>
       </c>
       <c r="E134" s="11" t="s">
         <v>2056</v>
@@ -22392,8 +22394,8 @@
       <c r="C135" s="11" t="s">
         <v>2656</v>
       </c>
-      <c r="D135" s="11">
-        <v>134</v>
+      <c r="D135" s="38">
+        <v>135</v>
       </c>
       <c r="E135" s="11" t="s">
         <v>2064</v>
@@ -22414,8 +22416,8 @@
       <c r="C136" s="11" t="s">
         <v>2669</v>
       </c>
-      <c r="D136" s="11">
-        <v>135</v>
+      <c r="D136" s="38">
+        <v>136</v>
       </c>
       <c r="E136" s="11" t="s">
         <v>2067</v>
@@ -22439,8 +22441,8 @@
       <c r="C137" s="11" t="s">
         <v>2652</v>
       </c>
-      <c r="D137" s="11">
-        <v>136</v>
+      <c r="D137" s="38">
+        <v>137</v>
       </c>
       <c r="E137" s="11" t="s">
         <v>2071</v>
@@ -22467,8 +22469,8 @@
       <c r="C138" s="11" t="s">
         <v>2659</v>
       </c>
-      <c r="D138" s="11">
-        <v>137</v>
+      <c r="D138" s="38">
+        <v>138</v>
       </c>
       <c r="E138" s="11" t="s">
         <v>2077</v>
@@ -22495,8 +22497,8 @@
       <c r="C139" s="11" t="s">
         <v>2651</v>
       </c>
-      <c r="D139" s="11">
-        <v>138</v>
+      <c r="D139" s="38">
+        <v>139</v>
       </c>
       <c r="E139" s="11" t="s">
         <v>2082</v>
@@ -22526,8 +22528,8 @@
       <c r="C140" s="11" t="s">
         <v>2661</v>
       </c>
-      <c r="D140" s="11">
-        <v>139</v>
+      <c r="D140" s="38">
+        <v>140</v>
       </c>
       <c r="E140" s="11" t="s">
         <v>1592</v>
@@ -22551,8 +22553,8 @@
       <c r="C141" s="11" t="s">
         <v>2657</v>
       </c>
-      <c r="D141" s="11">
-        <v>140</v>
+      <c r="D141" s="38">
+        <v>141</v>
       </c>
       <c r="E141" s="11" t="s">
         <v>2090</v>
@@ -22585,8 +22587,8 @@
       <c r="C142" s="11" t="s">
         <v>2666</v>
       </c>
-      <c r="D142" s="11">
-        <v>141</v>
+      <c r="D142" s="38">
+        <v>142</v>
       </c>
       <c r="E142" s="11" t="s">
         <v>2095</v>
@@ -22619,8 +22621,8 @@
       <c r="C143" s="11" t="s">
         <v>2664</v>
       </c>
-      <c r="D143" s="11">
-        <v>142</v>
+      <c r="D143" s="38">
+        <v>143</v>
       </c>
       <c r="E143" s="11" t="s">
         <v>2103</v>
@@ -22650,8 +22652,8 @@
       <c r="C144" s="11" t="s">
         <v>2665</v>
       </c>
-      <c r="D144" s="11">
-        <v>143</v>
+      <c r="D144" s="38">
+        <v>144</v>
       </c>
       <c r="E144" s="11" t="s">
         <v>2108</v>
@@ -22678,8 +22680,8 @@
       <c r="C145" s="11" t="s">
         <v>2664</v>
       </c>
-      <c r="D145" s="11">
-        <v>144</v>
+      <c r="D145" s="38">
+        <v>145</v>
       </c>
       <c r="E145" s="11" t="s">
         <v>2112</v>
@@ -22712,8 +22714,8 @@
       <c r="C146" s="11" t="s">
         <v>2651</v>
       </c>
-      <c r="D146" s="11">
-        <v>145</v>
+      <c r="D146" s="38">
+        <v>146</v>
       </c>
       <c r="E146" s="11" t="s">
         <v>2120</v>
@@ -22743,8 +22745,8 @@
       <c r="C147" s="11" t="s">
         <v>2651</v>
       </c>
-      <c r="D147" s="11">
-        <v>146</v>
+      <c r="D147" s="38">
+        <v>147</v>
       </c>
       <c r="E147" s="11" t="s">
         <v>2127</v>
@@ -22777,8 +22779,8 @@
       <c r="C148" s="11" t="s">
         <v>2653</v>
       </c>
-      <c r="D148" s="11">
-        <v>147</v>
+      <c r="D148" s="38">
+        <v>148</v>
       </c>
       <c r="E148" s="11" t="s">
         <v>2133</v>
@@ -22811,8 +22813,8 @@
       <c r="C149" s="11" t="s">
         <v>2665</v>
       </c>
-      <c r="D149" s="11">
-        <v>148</v>
+      <c r="D149" s="38">
+        <v>149</v>
       </c>
       <c r="E149" s="11" t="s">
         <v>2140</v>
@@ -22845,8 +22847,8 @@
       <c r="C150" s="11" t="s">
         <v>2655</v>
       </c>
-      <c r="D150" s="11">
-        <v>149</v>
+      <c r="D150" s="38">
+        <v>150</v>
       </c>
       <c r="E150" s="11" t="s">
         <v>2147</v>
@@ -22873,8 +22875,8 @@
       <c r="C151" s="36" t="s">
         <v>2655</v>
       </c>
-      <c r="D151" s="11">
-        <v>150</v>
+      <c r="D151" s="38">
+        <v>151</v>
       </c>
       <c r="E151" s="11" t="s">
         <v>2153</v>
@@ -22901,8 +22903,8 @@
       <c r="C152" s="36" t="s">
         <v>2661</v>
       </c>
-      <c r="D152" s="11">
-        <v>151</v>
+      <c r="D152" s="38">
+        <v>152</v>
       </c>
       <c r="E152" s="11" t="s">
         <v>2158</v>
@@ -22932,8 +22934,8 @@
       <c r="C153" s="11" t="s">
         <v>2650</v>
       </c>
-      <c r="D153" s="11">
-        <v>152</v>
+      <c r="D153" s="38">
+        <v>153</v>
       </c>
       <c r="E153" s="11" t="s">
         <v>2164</v>
@@ -22966,8 +22968,8 @@
       <c r="C154" s="11" t="s">
         <v>2658</v>
       </c>
-      <c r="D154" s="11">
-        <v>153</v>
+      <c r="D154" s="38">
+        <v>154</v>
       </c>
       <c r="E154" s="11" t="s">
         <v>2170</v>
@@ -23000,8 +23002,8 @@
       <c r="C155" s="11" t="s">
         <v>2650</v>
       </c>
-      <c r="D155" s="11">
-        <v>154</v>
+      <c r="D155" s="38">
+        <v>155</v>
       </c>
       <c r="E155" s="11" t="s">
         <v>857</v>
@@ -23034,8 +23036,8 @@
       <c r="C156" s="11" t="s">
         <v>2669</v>
       </c>
-      <c r="D156" s="11">
-        <v>155</v>
+      <c r="D156" s="38">
+        <v>156</v>
       </c>
       <c r="E156" s="11" t="s">
         <v>2182</v>
@@ -23062,8 +23064,8 @@
       <c r="C157" s="11" t="s">
         <v>2652</v>
       </c>
-      <c r="D157" s="11">
-        <v>156</v>
+      <c r="D157" s="38">
+        <v>157</v>
       </c>
       <c r="E157" s="11" t="s">
         <v>2188</v>
@@ -23093,8 +23095,8 @@
       <c r="C158" s="11" t="s">
         <v>2660</v>
       </c>
-      <c r="D158" s="11">
-        <v>157</v>
+      <c r="D158" s="38">
+        <v>158</v>
       </c>
       <c r="E158" s="11" t="s">
         <v>2193</v>
@@ -23121,8 +23123,8 @@
       <c r="C159" s="11" t="s">
         <v>2668</v>
       </c>
-      <c r="D159" s="11">
-        <v>158</v>
+      <c r="D159" s="38">
+        <v>159</v>
       </c>
       <c r="E159" s="11" t="s">
         <v>2198</v>
@@ -23155,8 +23157,8 @@
       <c r="C160" s="11" t="s">
         <v>2650</v>
       </c>
-      <c r="D160" s="11">
-        <v>159</v>
+      <c r="D160" s="38">
+        <v>160</v>
       </c>
       <c r="E160" s="11" t="s">
         <v>2204</v>
@@ -23186,8 +23188,8 @@
       <c r="C161" s="11" t="s">
         <v>2654</v>
       </c>
-      <c r="D161" s="11">
-        <v>160</v>
+      <c r="D161" s="38">
+        <v>161</v>
       </c>
       <c r="E161" s="11" t="s">
         <v>2210</v>
@@ -23211,8 +23213,8 @@
       <c r="C162" s="11" t="s">
         <v>2662</v>
       </c>
-      <c r="D162" s="11">
-        <v>161</v>
+      <c r="D162" s="38">
+        <v>162</v>
       </c>
       <c r="E162" s="11" t="s">
         <v>2214</v>
@@ -23236,8 +23238,8 @@
       <c r="C163" s="11" t="s">
         <v>2655</v>
       </c>
-      <c r="D163" s="11">
-        <v>162</v>
+      <c r="D163" s="38">
+        <v>163</v>
       </c>
       <c r="E163" s="11" t="s">
         <v>2217</v>
@@ -23270,8 +23272,8 @@
       <c r="C164" s="11" t="s">
         <v>2656</v>
       </c>
-      <c r="D164" s="11">
-        <v>163</v>
+      <c r="D164" s="38">
+        <v>164</v>
       </c>
       <c r="E164" s="11" t="s">
         <v>2225</v>
@@ -23304,8 +23306,8 @@
       <c r="C165" s="11" t="s">
         <v>2660</v>
       </c>
-      <c r="D165" s="11">
-        <v>164</v>
+      <c r="D165" s="38">
+        <v>165</v>
       </c>
       <c r="E165" s="11" t="s">
         <v>2232</v>
@@ -23332,8 +23334,8 @@
       <c r="C166" s="11" t="s">
         <v>2650</v>
       </c>
-      <c r="D166" s="11">
-        <v>165</v>
+      <c r="D166" s="38">
+        <v>166</v>
       </c>
       <c r="E166" s="11" t="s">
         <v>2236</v>
@@ -23366,8 +23368,8 @@
       <c r="C167" s="36" t="s">
         <v>2660</v>
       </c>
-      <c r="D167" s="11">
-        <v>166</v>
+      <c r="D167" s="38">
+        <v>167</v>
       </c>
       <c r="E167" s="11" t="s">
         <v>2242</v>
@@ -23400,8 +23402,8 @@
       <c r="C168" s="11" t="s">
         <v>2652</v>
       </c>
-      <c r="D168" s="11">
-        <v>167</v>
+      <c r="D168" s="38">
+        <v>168</v>
       </c>
       <c r="E168" s="11" t="s">
         <v>2249</v>
@@ -23431,8 +23433,8 @@
       <c r="C169" s="11" t="s">
         <v>2650</v>
       </c>
-      <c r="D169" s="11">
-        <v>168</v>
+      <c r="D169" s="38">
+        <v>169</v>
       </c>
       <c r="E169" s="11" t="s">
         <v>2254</v>
@@ -23459,8 +23461,8 @@
       <c r="C170" s="11" t="s">
         <v>2669</v>
       </c>
-      <c r="D170" s="11">
-        <v>169</v>
+      <c r="D170" s="38">
+        <v>170</v>
       </c>
       <c r="E170" s="11" t="s">
         <v>2259</v>
@@ -23490,8 +23492,8 @@
       <c r="C171" s="11" t="s">
         <v>2666</v>
       </c>
-      <c r="D171" s="11">
-        <v>170</v>
+      <c r="D171" s="38">
+        <v>171</v>
       </c>
       <c r="E171" s="11" t="s">
         <v>2264</v>
@@ -23518,8 +23520,8 @@
       <c r="C172" s="11" t="s">
         <v>2660</v>
       </c>
-      <c r="D172" s="11">
-        <v>171</v>
+      <c r="D172" s="38">
+        <v>172</v>
       </c>
       <c r="E172" s="11" t="s">
         <v>46</v>
@@ -23543,8 +23545,8 @@
       <c r="C173" s="11" t="s">
         <v>2659</v>
       </c>
-      <c r="D173" s="11">
-        <v>172</v>
+      <c r="D173" s="38">
+        <v>173</v>
       </c>
       <c r="E173" s="11" t="s">
         <v>2272</v>
@@ -23574,8 +23576,8 @@
       <c r="C174" s="11" t="s">
         <v>2654</v>
       </c>
-      <c r="D174" s="11">
-        <v>173</v>
+      <c r="D174" s="38">
+        <v>174</v>
       </c>
       <c r="E174" s="11" t="s">
         <v>2279</v>
@@ -23608,8 +23610,8 @@
       <c r="C175" s="11" t="s">
         <v>2662</v>
       </c>
-      <c r="D175" s="11">
-        <v>174</v>
+      <c r="D175" s="38">
+        <v>175</v>
       </c>
       <c r="E175" s="11" t="s">
         <v>2287</v>
@@ -23636,8 +23638,8 @@
       <c r="C176" s="11" t="s">
         <v>2653</v>
       </c>
-      <c r="D176" s="11">
-        <v>178</v>
+      <c r="D176" s="38">
+        <v>179</v>
       </c>
       <c r="E176" s="3" t="s">
         <v>2292</v>
@@ -23664,8 +23666,8 @@
       <c r="C177" s="11" t="s">
         <v>2657</v>
       </c>
-      <c r="D177" s="11">
-        <v>179</v>
+      <c r="D177" s="38">
+        <v>180</v>
       </c>
       <c r="E177" s="3" t="s">
         <v>2297</v>
@@ -23696,8 +23698,8 @@
       <c r="C178" s="11" t="s">
         <v>2661</v>
       </c>
-      <c r="D178" s="11">
-        <v>180</v>
+      <c r="D178" s="38">
+        <v>181</v>
       </c>
       <c r="E178" s="3" t="s">
         <v>2304</v>
@@ -23730,8 +23732,8 @@
       <c r="C179" s="11" t="s">
         <v>2667</v>
       </c>
-      <c r="D179" s="11">
-        <v>181</v>
+      <c r="D179" s="38">
+        <v>182</v>
       </c>
       <c r="E179" s="3" t="s">
         <v>2311</v>
@@ -23764,8 +23766,8 @@
       <c r="C180" s="11" t="s">
         <v>2654</v>
       </c>
-      <c r="D180" s="11">
-        <v>182</v>
+      <c r="D180" s="38">
+        <v>183</v>
       </c>
       <c r="E180" s="3" t="s">
         <v>2319</v>
@@ -23798,8 +23800,8 @@
       <c r="C181" s="11" t="s">
         <v>2654</v>
       </c>
-      <c r="D181" s="11">
-        <v>183</v>
+      <c r="D181" s="38">
+        <v>184</v>
       </c>
       <c r="E181" s="3" t="s">
         <v>2308</v>
@@ -23832,8 +23834,8 @@
       <c r="C182" s="11" t="s">
         <v>2650</v>
       </c>
-      <c r="D182" s="11">
-        <v>184</v>
+      <c r="D182" s="38">
+        <v>185</v>
       </c>
       <c r="E182" s="3" t="s">
         <v>2331</v>
@@ -23864,8 +23866,8 @@
       <c r="C183" s="11" t="s">
         <v>2656</v>
       </c>
-      <c r="D183" s="11">
-        <v>185</v>
+      <c r="D183" s="38">
+        <v>186</v>
       </c>
       <c r="E183" s="1" t="s">
         <v>2338</v>
@@ -23895,8 +23897,8 @@
       <c r="C184" s="11" t="s">
         <v>2654</v>
       </c>
-      <c r="D184" s="11">
-        <v>186</v>
+      <c r="D184" s="38">
+        <v>187</v>
       </c>
       <c r="E184" s="3" t="s">
         <v>2345</v>
@@ -23929,8 +23931,8 @@
       <c r="C185" s="11" t="s">
         <v>2650</v>
       </c>
-      <c r="D185" s="11">
-        <v>187</v>
+      <c r="D185" s="38">
+        <v>188</v>
       </c>
       <c r="E185" s="3" t="s">
         <v>2353</v>
@@ -23963,8 +23965,8 @@
       <c r="C186" s="11" t="s">
         <v>2653</v>
       </c>
-      <c r="D186" s="11">
-        <v>188</v>
+      <c r="D186" s="38">
+        <v>189</v>
       </c>
       <c r="E186" s="3" t="s">
         <v>857</v>
@@ -23997,8 +23999,8 @@
       <c r="C187" s="11" t="s">
         <v>2657</v>
       </c>
-      <c r="D187" s="11">
-        <v>189</v>
+      <c r="D187" s="38">
+        <v>190</v>
       </c>
       <c r="E187" s="3" t="s">
         <v>2367</v>
@@ -24031,8 +24033,8 @@
       <c r="C188" s="11" t="s">
         <v>2668</v>
       </c>
-      <c r="D188" s="11">
-        <v>190</v>
+      <c r="D188" s="38">
+        <v>191</v>
       </c>
       <c r="E188" s="3" t="s">
         <v>613</v>
@@ -24065,8 +24067,8 @@
       <c r="C189" s="11" t="s">
         <v>2666</v>
       </c>
-      <c r="D189" s="11">
-        <v>191</v>
+      <c r="D189" s="38">
+        <v>192</v>
       </c>
       <c r="E189" s="3" t="s">
         <v>2380</v>
@@ -24097,8 +24099,8 @@
       <c r="C190" s="11" t="s">
         <v>2650</v>
       </c>
-      <c r="D190" s="11">
-        <v>192</v>
+      <c r="D190" s="38">
+        <v>193</v>
       </c>
       <c r="E190" s="3" t="s">
         <v>2003</v>
@@ -24129,8 +24131,8 @@
       <c r="C191" s="11" t="s">
         <v>2651</v>
       </c>
-      <c r="D191" s="11">
-        <v>193</v>
+      <c r="D191" s="38">
+        <v>194</v>
       </c>
       <c r="E191" s="3" t="s">
         <v>2393</v>
@@ -24163,8 +24165,8 @@
       <c r="C192" s="11" t="s">
         <v>2652</v>
       </c>
-      <c r="D192" s="11">
-        <v>194</v>
+      <c r="D192" s="38">
+        <v>195</v>
       </c>
       <c r="E192" s="3" t="s">
         <v>80</v>
@@ -24197,8 +24199,8 @@
       <c r="C193" s="11" t="s">
         <v>2665</v>
       </c>
-      <c r="D193" s="11">
-        <v>195</v>
+      <c r="D193" s="38">
+        <v>196</v>
       </c>
       <c r="E193" s="3" t="s">
         <v>2406</v>
@@ -24227,8 +24229,8 @@
       <c r="C194" s="11" t="s">
         <v>2651</v>
       </c>
-      <c r="D194" s="11">
-        <v>196</v>
+      <c r="D194" s="38">
+        <v>197</v>
       </c>
       <c r="E194" s="3" t="s">
         <v>2412</v>
@@ -24261,8 +24263,8 @@
       <c r="C195" s="11" t="s">
         <v>2669</v>
       </c>
-      <c r="D195" s="11">
-        <v>197</v>
+      <c r="D195" s="38">
+        <v>198</v>
       </c>
       <c r="E195" s="3" t="s">
         <v>924</v>
@@ -24295,8 +24297,8 @@
       <c r="C196" s="11" t="s">
         <v>2658</v>
       </c>
-      <c r="D196" s="11">
-        <v>198</v>
+      <c r="D196" s="38">
+        <v>199</v>
       </c>
       <c r="E196" s="3" t="s">
         <v>2425</v>
@@ -24329,8 +24331,8 @@
       <c r="C197" s="11" t="s">
         <v>2661</v>
       </c>
-      <c r="D197" s="11">
-        <v>199</v>
+      <c r="D197" s="38">
+        <v>200</v>
       </c>
       <c r="E197" s="3" t="s">
         <v>411</v>
@@ -24359,8 +24361,8 @@
       <c r="C198" s="11" t="s">
         <v>2652</v>
       </c>
-      <c r="D198" s="11">
-        <v>200</v>
+      <c r="D198" s="38">
+        <v>201</v>
       </c>
       <c r="E198" s="3" t="s">
         <v>1326</v>
@@ -24389,8 +24391,8 @@
       <c r="C199" s="11" t="s">
         <v>2661</v>
       </c>
-      <c r="D199" s="11">
-        <v>201</v>
+      <c r="D199" s="38">
+        <v>202</v>
       </c>
       <c r="E199" s="3" t="s">
         <v>2439</v>
@@ -24423,8 +24425,8 @@
       <c r="C200" s="11" t="s">
         <v>2665</v>
       </c>
-      <c r="D200" s="11">
-        <v>202</v>
+      <c r="D200" s="38">
+        <v>203</v>
       </c>
       <c r="E200" s="3" t="s">
         <v>2445</v>
@@ -24457,8 +24459,8 @@
       <c r="C201" s="11" t="s">
         <v>2665</v>
       </c>
-      <c r="D201" s="11">
-        <v>203</v>
+      <c r="D201" s="38">
+        <v>204</v>
       </c>
       <c r="E201" s="3" t="s">
         <v>2451</v>
@@ -24489,8 +24491,8 @@
       <c r="C202" s="11" t="s">
         <v>2660</v>
       </c>
-      <c r="D202" s="11">
-        <v>204</v>
+      <c r="D202" s="38">
+        <v>205</v>
       </c>
       <c r="E202" s="3" t="s">
         <v>2459</v>
@@ -24519,8 +24521,8 @@
       <c r="C203" s="11" t="s">
         <v>2662</v>
       </c>
-      <c r="D203" s="11">
-        <v>205</v>
+      <c r="D203" s="38">
+        <v>206</v>
       </c>
       <c r="E203" s="3" t="s">
         <v>46</v>
@@ -24549,8 +24551,8 @@
       <c r="C204" s="11" t="s">
         <v>2654</v>
       </c>
-      <c r="D204" s="11">
-        <v>206</v>
+      <c r="D204" s="38">
+        <v>207</v>
       </c>
       <c r="E204" s="3" t="s">
         <v>2469</v>
@@ -24577,8 +24579,8 @@
       <c r="C205" s="11" t="s">
         <v>2656</v>
       </c>
-      <c r="D205" s="11">
-        <v>207</v>
+      <c r="D205" s="38">
+        <v>208</v>
       </c>
       <c r="E205" s="3" t="s">
         <v>2474</v>
@@ -24611,8 +24613,8 @@
       <c r="C206" s="11" t="s">
         <v>2658</v>
       </c>
-      <c r="D206" s="11">
-        <v>208</v>
+      <c r="D206" s="38">
+        <v>209</v>
       </c>
       <c r="E206" s="3" t="s">
         <v>2482</v>
@@ -24645,8 +24647,8 @@
       <c r="C207" s="11" t="s">
         <v>2658</v>
       </c>
-      <c r="D207" s="11">
-        <v>209</v>
+      <c r="D207" s="38">
+        <v>210</v>
       </c>
       <c r="E207" s="3" t="s">
         <v>2490</v>
@@ -24679,8 +24681,8 @@
       <c r="C208" s="11" t="s">
         <v>2654</v>
       </c>
-      <c r="D208" s="11">
-        <v>210</v>
+      <c r="D208" s="38">
+        <v>211</v>
       </c>
       <c r="E208" s="3" t="s">
         <v>2498</v>
@@ -24713,8 +24715,8 @@
       <c r="C209" s="11" t="s">
         <v>2668</v>
       </c>
-      <c r="D209" s="11">
-        <v>211</v>
+      <c r="D209" s="38">
+        <v>212</v>
       </c>
       <c r="E209" s="3" t="s">
         <v>2506</v>
@@ -24747,8 +24749,8 @@
       <c r="C210" s="11" t="s">
         <v>2656</v>
       </c>
-      <c r="D210" s="11">
-        <v>212</v>
+      <c r="D210" s="38">
+        <v>213</v>
       </c>
       <c r="E210" s="3" t="s">
         <v>2513</v>
@@ -24781,8 +24783,8 @@
       <c r="C211" s="11" t="s">
         <v>2664</v>
       </c>
-      <c r="D211" s="11">
-        <v>213</v>
+      <c r="D211" s="38">
+        <v>214</v>
       </c>
       <c r="E211" s="3" t="s">
         <v>1326</v>
@@ -24815,8 +24817,8 @@
       <c r="C212" s="11" t="s">
         <v>2656</v>
       </c>
-      <c r="D212" s="11">
-        <v>214</v>
+      <c r="D212" s="38">
+        <v>215</v>
       </c>
       <c r="E212" s="1" t="s">
         <v>2526</v>
@@ -24849,8 +24851,8 @@
       <c r="C213" s="11" t="s">
         <v>2669</v>
       </c>
-      <c r="D213" s="11">
-        <v>215</v>
+      <c r="D213" s="38">
+        <v>216</v>
       </c>
       <c r="E213" s="3" t="s">
         <v>2532</v>
@@ -24877,8 +24879,8 @@
       <c r="C214" s="11" t="s">
         <v>2663</v>
       </c>
-      <c r="D214" s="11">
-        <v>216</v>
+      <c r="D214" s="38">
+        <v>217</v>
       </c>
       <c r="E214" s="3" t="s">
         <v>2535</v>
@@ -24911,8 +24913,8 @@
       <c r="C215" s="11" t="s">
         <v>2663</v>
       </c>
-      <c r="D215" s="11">
-        <v>217</v>
+      <c r="D215" s="38">
+        <v>218</v>
       </c>
       <c r="E215" s="3" t="s">
         <v>2543</v>
@@ -24943,8 +24945,8 @@
       <c r="C216" s="11" t="s">
         <v>2662</v>
       </c>
-      <c r="D216" s="11">
-        <v>218</v>
+      <c r="D216" s="38">
+        <v>219</v>
       </c>
       <c r="E216" s="3" t="s">
         <v>2550</v>
@@ -24977,8 +24979,8 @@
       <c r="C217" s="11" t="s">
         <v>2669</v>
       </c>
-      <c r="D217" s="11">
-        <v>219</v>
+      <c r="D217" s="38">
+        <v>220</v>
       </c>
       <c r="E217" s="3" t="s">
         <v>2557</v>
@@ -25009,8 +25011,8 @@
       <c r="C218" s="11" t="s">
         <v>2656</v>
       </c>
-      <c r="D218" s="11">
-        <v>220</v>
+      <c r="D218" s="38">
+        <v>221</v>
       </c>
       <c r="E218" s="3" t="s">
         <v>2564</v>
@@ -25039,8 +25041,8 @@
       <c r="C219" s="11" t="s">
         <v>2657</v>
       </c>
-      <c r="D219" s="11">
-        <v>221</v>
+      <c r="D219" s="38">
+        <v>222</v>
       </c>
       <c r="E219" s="3" t="s">
         <v>1032</v>
@@ -25071,8 +25073,8 @@
       <c r="C220" s="11" t="s">
         <v>2650</v>
       </c>
-      <c r="D220" s="11">
-        <v>222</v>
+      <c r="D220" s="38">
+        <v>223</v>
       </c>
       <c r="E220" s="3" t="s">
         <v>2572</v>
@@ -25099,8 +25101,8 @@
       <c r="C221" s="11" t="s">
         <v>2657</v>
       </c>
-      <c r="D221" s="11">
-        <v>223</v>
+      <c r="D221" s="38">
+        <v>224</v>
       </c>
       <c r="E221" s="3" t="s">
         <v>2576</v>
@@ -25133,8 +25135,8 @@
       <c r="C222" s="11" t="s">
         <v>2659</v>
       </c>
-      <c r="D222" s="11">
-        <v>224</v>
+      <c r="D222" s="38">
+        <v>225</v>
       </c>
       <c r="E222" s="3" t="s">
         <v>2583</v>
@@ -25167,8 +25169,8 @@
       <c r="C223" s="11" t="s">
         <v>2667</v>
       </c>
-      <c r="D223" s="11">
-        <v>225</v>
+      <c r="D223" s="38">
+        <v>226</v>
       </c>
       <c r="E223" s="3" t="s">
         <v>2590</v>
@@ -25199,8 +25201,8 @@
       <c r="C224" s="11" t="s">
         <v>2658</v>
       </c>
-      <c r="D224" s="11">
-        <v>226</v>
+      <c r="D224" s="38">
+        <v>227</v>
       </c>
       <c r="E224" s="3" t="s">
         <v>2597</v>
@@ -25233,8 +25235,8 @@
       <c r="C225" s="11" t="s">
         <v>2651</v>
       </c>
-      <c r="D225" s="11">
-        <v>227</v>
+      <c r="D225" s="38">
+        <v>228</v>
       </c>
       <c r="E225" s="3" t="s">
         <v>2605</v>
@@ -25265,8 +25267,8 @@
       <c r="C226" s="11" t="s">
         <v>2661</v>
       </c>
-      <c r="D226" s="11">
-        <v>228</v>
+      <c r="D226" s="38">
+        <v>229</v>
       </c>
       <c r="E226" s="3" t="s">
         <v>2611</v>
@@ -25299,8 +25301,8 @@
       <c r="C227" s="11" t="s">
         <v>2660</v>
       </c>
-      <c r="D227" s="11">
-        <v>229</v>
+      <c r="D227" s="38">
+        <v>230</v>
       </c>
       <c r="E227" s="3" t="s">
         <v>2619</v>
@@ -25325,8 +25327,8 @@
       <c r="C228" s="11" t="s">
         <v>2660</v>
       </c>
-      <c r="D228" s="11">
-        <v>230</v>
+      <c r="D228" s="38">
+        <v>231</v>
       </c>
       <c r="E228" s="3" t="s">
         <v>2623</v>
@@ -25357,8 +25359,8 @@
       <c r="C229" s="11" t="s">
         <v>2651</v>
       </c>
-      <c r="D229" s="11">
-        <v>231</v>
+      <c r="D229" s="38">
+        <v>232</v>
       </c>
       <c r="E229" s="3" t="s">
         <v>2628</v>
@@ -25389,8 +25391,8 @@
       <c r="C230" s="11" t="s">
         <v>2666</v>
       </c>
-      <c r="D230" s="11">
-        <v>232</v>
+      <c r="D230" s="38">
+        <v>233</v>
       </c>
       <c r="E230" s="3" t="s">
         <v>2635</v>
